--- a/data/arange/05_PC2,4,6,7,IC1,4,7/220606 調査報告書+IDs_A先.xlsx
+++ b/data/arange/05_PC2,4,6,7,IC1,4,7/220606 調査報告書+IDs_A先.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yosuke_shibata/04_laboratory/04_part_time/01_code/data/arange/05_PC2,4,6,7,IC1,4,7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF10C83-C64D-5944-A40A-6226E8C325BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5395970-285D-8E4D-B6EC-7D7184F70DDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="32260" windowHeight="18880" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16800" yWindow="500" windowWidth="16800" windowHeight="18900" firstSheet="9" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="00_各シート詳細" sheetId="1" r:id="rId1"/>
@@ -1502,8 +1502,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1548,11 +1546,13 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="26">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1658,96 +1658,6 @@
         <patternFill>
           <fgColor rgb="FF0070C0"/>
           <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF0070C0"/>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6416,8 +6326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66CBA61B-D183-8846-9C16-3D71C1F9F8CB}">
   <dimension ref="A1:CH64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M37" sqref="D37:M37"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6439,66 +6349,66 @@
       <c r="C1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="74" t="s">
+      <c r="D1" s="72" t="s">
         <v>261</v>
       </c>
-      <c r="E1" s="74" t="s">
+      <c r="E1" s="72" t="s">
         <v>264</v>
       </c>
-      <c r="F1" s="74" t="s">
+      <c r="F1" s="72" t="s">
         <v>225</v>
       </c>
-      <c r="G1" s="74" t="s">
+      <c r="G1" s="72" t="s">
         <v>229</v>
       </c>
-      <c r="H1" s="74" t="s">
+      <c r="H1" s="72" t="s">
         <v>254</v>
       </c>
-      <c r="I1" s="74" t="s">
+      <c r="I1" s="72" t="s">
         <v>253</v>
       </c>
-      <c r="J1" s="74" t="s">
+      <c r="J1" s="72" t="s">
         <v>263</v>
       </c>
-      <c r="K1" s="74" t="s">
+      <c r="K1" s="72" t="s">
         <v>241</v>
       </c>
-      <c r="L1" s="74" t="s">
+      <c r="L1" s="72" t="s">
         <v>228</v>
       </c>
-      <c r="M1" s="74" t="s">
+      <c r="M1" s="72" t="s">
         <v>236</v>
       </c>
-      <c r="N1" s="70"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
-      <c r="W1" s="69"/>
-      <c r="X1" s="69"/>
-      <c r="Y1" s="69"/>
-      <c r="Z1" s="69"/>
-      <c r="AA1" s="69"/>
-      <c r="AB1" s="69"/>
-      <c r="AC1" s="69"/>
-      <c r="AD1" s="69"/>
-      <c r="AE1" s="69"/>
-      <c r="AF1" s="69"/>
-      <c r="AG1" s="66"/>
-      <c r="AH1" s="66"/>
-      <c r="AI1" s="66"/>
-      <c r="AJ1" s="66"/>
-      <c r="AK1" s="66"/>
-      <c r="AL1" s="66"/>
-      <c r="AM1" s="66"/>
-      <c r="AN1" s="66"/>
-      <c r="AO1" s="66"/>
-      <c r="AP1" s="66"/>
-      <c r="AQ1" s="66"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
+      <c r="W1" s="67"/>
+      <c r="X1" s="67"/>
+      <c r="Y1" s="67"/>
+      <c r="Z1" s="67"/>
+      <c r="AA1" s="67"/>
+      <c r="AB1" s="67"/>
+      <c r="AC1" s="67"/>
+      <c r="AD1" s="67"/>
+      <c r="AE1" s="67"/>
+      <c r="AF1" s="67"/>
+      <c r="AG1" s="64"/>
+      <c r="AH1" s="64"/>
+      <c r="AI1" s="64"/>
+      <c r="AJ1" s="64"/>
+      <c r="AK1" s="64"/>
+      <c r="AL1" s="64"/>
+      <c r="AM1" s="64"/>
+      <c r="AN1" s="64"/>
+      <c r="AO1" s="64"/>
+      <c r="AP1" s="64"/>
+      <c r="AQ1" s="64"/>
     </row>
     <row r="2" spans="1:86">
       <c r="A2" s="38">
@@ -6550,7 +6460,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>7.9404002986059403</v>
       </c>
-      <c r="N2" s="71"/>
+      <c r="N2" s="69"/>
       <c r="O2" s="49"/>
       <c r="P2" s="49"/>
       <c r="Q2" s="49"/>
@@ -6631,7 +6541,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>2.1259529119213401</v>
       </c>
-      <c r="N3" s="71"/>
+      <c r="N3" s="69"/>
       <c r="O3" s="49"/>
       <c r="P3" s="49"/>
       <c r="Q3" s="49"/>
@@ -6712,7 +6622,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>1.0445736811506441</v>
       </c>
-      <c r="N4" s="71"/>
+      <c r="N4" s="69"/>
       <c r="O4" s="49"/>
       <c r="P4" s="49"/>
       <c r="Q4" s="49"/>
@@ -6793,7 +6703,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>0</v>
       </c>
-      <c r="N5" s="71"/>
+      <c r="N5" s="69"/>
       <c r="O5" s="49"/>
       <c r="P5" s="49"/>
       <c r="Q5" s="49"/>
@@ -6874,7 +6784,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>1.72304132235092</v>
       </c>
-      <c r="N6" s="71"/>
+      <c r="N6" s="69"/>
       <c r="O6" s="49"/>
       <c r="P6" s="49"/>
       <c r="Q6" s="49"/>
@@ -6955,7 +6865,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>0.53483062241483303</v>
       </c>
-      <c r="N7" s="71"/>
+      <c r="N7" s="69"/>
       <c r="O7" s="49"/>
       <c r="P7" s="49"/>
       <c r="Q7" s="49"/>
@@ -6985,7 +6895,7 @@
       <c r="AO7" s="49"/>
       <c r="AP7" s="49"/>
       <c r="AQ7" s="49"/>
-      <c r="AR7" s="65"/>
+      <c r="AR7" s="63"/>
       <c r="AS7" s="26"/>
       <c r="AT7" s="45"/>
       <c r="AU7" s="49"/>
@@ -7079,7 +6989,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>3.5804978385719148</v>
       </c>
-      <c r="N8" s="71"/>
+      <c r="N8" s="69"/>
       <c r="O8" s="49"/>
       <c r="P8" s="49"/>
       <c r="Q8" s="49"/>
@@ -7160,7 +7070,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>1.682477351486215</v>
       </c>
-      <c r="N9" s="71"/>
+      <c r="N9" s="69"/>
       <c r="O9" s="49"/>
       <c r="P9" s="49"/>
       <c r="Q9" s="49"/>
@@ -7241,7 +7151,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>4.3309509725480551</v>
       </c>
-      <c r="N10" s="71"/>
+      <c r="N10" s="69"/>
       <c r="O10" s="49"/>
       <c r="P10" s="49"/>
       <c r="Q10" s="49"/>
@@ -7322,7 +7232,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>5.1562477985004351</v>
       </c>
-      <c r="N11" s="71"/>
+      <c r="N11" s="69"/>
       <c r="O11" s="49"/>
       <c r="P11" s="49"/>
       <c r="Q11" s="49"/>
@@ -7403,7 +7313,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>2.2763678064617401</v>
       </c>
-      <c r="N12" s="71"/>
+      <c r="N12" s="69"/>
       <c r="O12" s="49"/>
       <c r="P12" s="49"/>
       <c r="Q12" s="49"/>
@@ -7484,7 +7394,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>1.4321342956838401</v>
       </c>
-      <c r="N13" s="71"/>
+      <c r="N13" s="69"/>
       <c r="O13" s="49"/>
       <c r="P13" s="49"/>
       <c r="Q13" s="49"/>
@@ -7565,7 +7475,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>2.3300960994022502</v>
       </c>
-      <c r="N14" s="71"/>
+      <c r="N14" s="69"/>
       <c r="O14" s="49"/>
       <c r="P14" s="49"/>
       <c r="Q14" s="49"/>
@@ -7646,7 +7556,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>1.2229857014057699</v>
       </c>
-      <c r="N15" s="71"/>
+      <c r="N15" s="69"/>
       <c r="O15" s="49"/>
       <c r="P15" s="49"/>
       <c r="Q15" s="49"/>
@@ -7727,7 +7637,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>0.57781298383867896</v>
       </c>
-      <c r="N16" s="71"/>
+      <c r="N16" s="69"/>
       <c r="O16" s="49"/>
       <c r="P16" s="49"/>
       <c r="Q16" s="49"/>
@@ -7808,7 +7718,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>2.0565936365976252</v>
       </c>
-      <c r="N17" s="71"/>
+      <c r="N17" s="69"/>
       <c r="O17" s="49"/>
       <c r="P17" s="49"/>
       <c r="Q17" s="49"/>
@@ -7889,7 +7799,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>2.77121357954988</v>
       </c>
-      <c r="N18" s="71"/>
+      <c r="N18" s="69"/>
       <c r="O18" s="49"/>
       <c r="P18" s="49"/>
       <c r="Q18" s="49"/>
@@ -7970,7 +7880,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>1.8511008781447</v>
       </c>
-      <c r="N19" s="71"/>
+      <c r="N19" s="69"/>
       <c r="O19" s="49"/>
       <c r="P19" s="49"/>
       <c r="Q19" s="49"/>
@@ -8051,7 +7961,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>7.9086791885628198</v>
       </c>
-      <c r="N20" s="71"/>
+      <c r="N20" s="69"/>
       <c r="O20" s="49"/>
       <c r="P20" s="49"/>
       <c r="Q20" s="49"/>
@@ -8132,7 +8042,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>4.3720637772217001</v>
       </c>
-      <c r="N21" s="71"/>
+      <c r="N21" s="69"/>
       <c r="O21" s="49"/>
       <c r="P21" s="49"/>
       <c r="Q21" s="49"/>
@@ -8213,7 +8123,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>1.6025030747709099</v>
       </c>
-      <c r="N22" s="71"/>
+      <c r="N22" s="69"/>
       <c r="O22" s="49"/>
       <c r="P22" s="49"/>
       <c r="Q22" s="49"/>
@@ -8294,7 +8204,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>4.9677833028925003</v>
       </c>
-      <c r="N23" s="71"/>
+      <c r="N23" s="69"/>
       <c r="O23" s="49"/>
       <c r="P23" s="49"/>
       <c r="Q23" s="49"/>
@@ -8375,7 +8285,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>0</v>
       </c>
-      <c r="N24" s="71"/>
+      <c r="N24" s="69"/>
       <c r="O24" s="49"/>
       <c r="P24" s="49"/>
       <c r="Q24" s="49"/>
@@ -8456,7 +8366,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>1.731819554593877</v>
       </c>
-      <c r="N25" s="71"/>
+      <c r="N25" s="69"/>
       <c r="O25" s="49"/>
       <c r="P25" s="49"/>
       <c r="Q25" s="49"/>
@@ -8537,7 +8447,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>3.2091039826038301</v>
       </c>
-      <c r="N26" s="71"/>
+      <c r="N26" s="69"/>
       <c r="O26" s="49"/>
       <c r="P26" s="49"/>
       <c r="Q26" s="49"/>
@@ -8618,7 +8528,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>0.96826451586254503</v>
       </c>
-      <c r="N27" s="71"/>
+      <c r="N27" s="69"/>
       <c r="O27" s="49"/>
       <c r="P27" s="49"/>
       <c r="Q27" s="49"/>
@@ -8699,7 +8609,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>1.9649159024042899</v>
       </c>
-      <c r="N28" s="71"/>
+      <c r="N28" s="69"/>
       <c r="O28" s="49"/>
       <c r="P28" s="49"/>
       <c r="Q28" s="49"/>
@@ -8780,7 +8690,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>0</v>
       </c>
-      <c r="N29" s="71"/>
+      <c r="N29" s="69"/>
       <c r="O29" s="49"/>
       <c r="P29" s="49"/>
       <c r="Q29" s="49"/>
@@ -8861,7 +8771,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>2.41489698022913</v>
       </c>
-      <c r="N30" s="71"/>
+      <c r="N30" s="69"/>
       <c r="O30" s="49"/>
       <c r="P30" s="49"/>
       <c r="Q30" s="49"/>
@@ -8942,7 +8852,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>1.4480525158159001</v>
       </c>
-      <c r="N31" s="71"/>
+      <c r="N31" s="69"/>
       <c r="O31" s="49"/>
       <c r="P31" s="49"/>
       <c r="Q31" s="49"/>
@@ -9023,7 +8933,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>2.1131172632940101</v>
       </c>
-      <c r="N32" s="71"/>
+      <c r="N32" s="69"/>
       <c r="O32" s="49"/>
       <c r="P32" s="49"/>
       <c r="Q32" s="49"/>
@@ -9068,16 +8978,16 @@
     </row>
     <row r="37" spans="3:43" ht="16">
       <c r="C37" s="45"/>
-      <c r="D37" s="69"/>
-      <c r="E37" s="69"/>
-      <c r="F37" s="69"/>
-      <c r="G37" s="69"/>
-      <c r="H37" s="69"/>
-      <c r="I37" s="69"/>
-      <c r="J37" s="69"/>
-      <c r="K37" s="69"/>
-      <c r="L37" s="69"/>
-      <c r="M37" s="69"/>
+      <c r="D37" s="67"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="67"/>
+      <c r="H37" s="67"/>
+      <c r="I37" s="67"/>
+      <c r="J37" s="67"/>
+      <c r="K37" s="67"/>
+      <c r="L37" s="67"/>
+      <c r="M37" s="67"/>
     </row>
     <row r="38" spans="3:43" ht="18">
       <c r="C38" s="45"/>
@@ -9123,8 +9033,8 @@
     </row>
     <row r="44" spans="3:43" ht="18">
       <c r="C44" s="45"/>
-      <c r="F44" s="57"/>
-      <c r="G44" s="58"/>
+      <c r="F44" s="73"/>
+      <c r="G44" s="74"/>
       <c r="W44" s="42"/>
       <c r="Y44" s="42"/>
       <c r="AI44" s="42"/>
@@ -9250,18 +9160,18 @@
   </mergeCells>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="D37:M37">
-    <cfRule type="expression" dxfId="15" priority="3">
+    <cfRule type="expression" dxfId="11" priority="3">
       <formula>$O37&lt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="4">
+    <cfRule type="expression" dxfId="10" priority="4">
       <formula>$O37&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:M1">
-    <cfRule type="expression" dxfId="13" priority="1">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>$O1&lt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="2">
+    <cfRule type="expression" dxfId="8" priority="2">
       <formula>$O1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9273,8 +9183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A58A4F64-AD6D-F14B-8CFF-010ABB99971E}">
   <dimension ref="A1:CH64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M38" sqref="D38:M38"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -9296,66 +9206,66 @@
       <c r="C1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="70" t="s">
         <v>230</v>
       </c>
-      <c r="E1" s="72" t="s">
+      <c r="E1" s="70" t="s">
         <v>227</v>
       </c>
-      <c r="F1" s="72" t="s">
+      <c r="F1" s="70" t="s">
         <v>240</v>
       </c>
-      <c r="G1" s="72" t="s">
+      <c r="G1" s="70" t="s">
         <v>237</v>
       </c>
-      <c r="H1" s="72" t="s">
+      <c r="H1" s="70" t="s">
         <v>225</v>
       </c>
-      <c r="I1" s="72" t="s">
+      <c r="I1" s="70" t="s">
         <v>256</v>
       </c>
-      <c r="J1" s="72" t="s">
+      <c r="J1" s="70" t="s">
         <v>261</v>
       </c>
-      <c r="K1" s="72" t="s">
+      <c r="K1" s="70" t="s">
         <v>244</v>
       </c>
-      <c r="L1" s="72" t="s">
+      <c r="L1" s="70" t="s">
         <v>250</v>
       </c>
-      <c r="M1" s="73" t="s">
+      <c r="M1" s="71" t="s">
         <v>232</v>
       </c>
-      <c r="N1" s="70"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
-      <c r="W1" s="69"/>
-      <c r="X1" s="69"/>
-      <c r="Y1" s="69"/>
-      <c r="Z1" s="69"/>
-      <c r="AA1" s="69"/>
-      <c r="AB1" s="69"/>
-      <c r="AC1" s="69"/>
-      <c r="AD1" s="69"/>
-      <c r="AE1" s="69"/>
-      <c r="AF1" s="69"/>
-      <c r="AG1" s="66"/>
-      <c r="AH1" s="66"/>
-      <c r="AI1" s="66"/>
-      <c r="AJ1" s="66"/>
-      <c r="AK1" s="66"/>
-      <c r="AL1" s="66"/>
-      <c r="AM1" s="66"/>
-      <c r="AN1" s="66"/>
-      <c r="AO1" s="66"/>
-      <c r="AP1" s="66"/>
-      <c r="AQ1" s="66"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
+      <c r="W1" s="67"/>
+      <c r="X1" s="67"/>
+      <c r="Y1" s="67"/>
+      <c r="Z1" s="67"/>
+      <c r="AA1" s="67"/>
+      <c r="AB1" s="67"/>
+      <c r="AC1" s="67"/>
+      <c r="AD1" s="67"/>
+      <c r="AE1" s="67"/>
+      <c r="AF1" s="67"/>
+      <c r="AG1" s="64"/>
+      <c r="AH1" s="64"/>
+      <c r="AI1" s="64"/>
+      <c r="AJ1" s="64"/>
+      <c r="AK1" s="64"/>
+      <c r="AL1" s="64"/>
+      <c r="AM1" s="64"/>
+      <c r="AN1" s="64"/>
+      <c r="AO1" s="64"/>
+      <c r="AP1" s="64"/>
+      <c r="AQ1" s="64"/>
     </row>
     <row r="2" spans="1:86">
       <c r="A2" s="38">
@@ -9407,7 +9317,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>28485.462124429381</v>
       </c>
-      <c r="N2" s="71"/>
+      <c r="N2" s="69"/>
       <c r="O2" s="49"/>
       <c r="P2" s="49"/>
       <c r="Q2" s="49"/>
@@ -9488,7 +9398,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>998.24255534444603</v>
       </c>
-      <c r="N3" s="71"/>
+      <c r="N3" s="69"/>
       <c r="O3" s="49"/>
       <c r="P3" s="49"/>
       <c r="Q3" s="49"/>
@@ -9569,7 +9479,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>456.40724016350418</v>
       </c>
-      <c r="N4" s="71"/>
+      <c r="N4" s="69"/>
       <c r="O4" s="49"/>
       <c r="P4" s="49"/>
       <c r="Q4" s="49"/>
@@ -9650,7 +9560,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>0</v>
       </c>
-      <c r="N5" s="71"/>
+      <c r="N5" s="69"/>
       <c r="O5" s="49"/>
       <c r="P5" s="49"/>
       <c r="Q5" s="49"/>
@@ -9731,7 +9641,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>699.90254144929395</v>
       </c>
-      <c r="N6" s="71"/>
+      <c r="N6" s="69"/>
       <c r="O6" s="49"/>
       <c r="P6" s="49"/>
       <c r="Q6" s="49"/>
@@ -9812,7 +9722,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>9.0952072161874398</v>
       </c>
-      <c r="N7" s="71"/>
+      <c r="N7" s="69"/>
       <c r="O7" s="49"/>
       <c r="P7" s="49"/>
       <c r="Q7" s="49"/>
@@ -9842,7 +9752,7 @@
       <c r="AO7" s="49"/>
       <c r="AP7" s="49"/>
       <c r="AQ7" s="49"/>
-      <c r="AR7" s="65"/>
+      <c r="AR7" s="63"/>
       <c r="AS7" s="26"/>
       <c r="AT7" s="45"/>
       <c r="AU7" s="49"/>
@@ -9936,7 +9846,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>1489.9502302117401</v>
       </c>
-      <c r="N8" s="71"/>
+      <c r="N8" s="69"/>
       <c r="O8" s="49"/>
       <c r="P8" s="49"/>
       <c r="Q8" s="49"/>
@@ -10017,7 +9927,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>275.18503861984749</v>
       </c>
-      <c r="N9" s="71"/>
+      <c r="N9" s="69"/>
       <c r="O9" s="49"/>
       <c r="P9" s="49"/>
       <c r="Q9" s="49"/>
@@ -10098,7 +10008,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>1036.18552685498</v>
       </c>
-      <c r="N10" s="71"/>
+      <c r="N10" s="69"/>
       <c r="O10" s="49"/>
       <c r="P10" s="49"/>
       <c r="Q10" s="49"/>
@@ -10179,7 +10089,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>1484.039650934551</v>
       </c>
-      <c r="N11" s="71"/>
+      <c r="N11" s="69"/>
       <c r="O11" s="49"/>
       <c r="P11" s="49"/>
       <c r="Q11" s="49"/>
@@ -10260,7 +10170,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>159.42089350283399</v>
       </c>
-      <c r="N12" s="71"/>
+      <c r="N12" s="69"/>
       <c r="O12" s="49"/>
       <c r="P12" s="49"/>
       <c r="Q12" s="49"/>
@@ -10341,7 +10251,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>2200.2241516874801</v>
       </c>
-      <c r="N13" s="71"/>
+      <c r="N13" s="69"/>
       <c r="O13" s="49"/>
       <c r="P13" s="49"/>
       <c r="Q13" s="49"/>
@@ -10422,7 +10332,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>2669.6566159771251</v>
       </c>
-      <c r="N14" s="71"/>
+      <c r="N14" s="69"/>
       <c r="O14" s="49"/>
       <c r="P14" s="49"/>
       <c r="Q14" s="49"/>
@@ -10503,7 +10413,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>1044.212510597868</v>
       </c>
-      <c r="N15" s="71"/>
+      <c r="N15" s="69"/>
       <c r="O15" s="49"/>
       <c r="P15" s="49"/>
       <c r="Q15" s="49"/>
@@ -10584,7 +10494,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>752.22371356937003</v>
       </c>
-      <c r="N16" s="71"/>
+      <c r="N16" s="69"/>
       <c r="O16" s="49"/>
       <c r="P16" s="49"/>
       <c r="Q16" s="49"/>
@@ -10665,7 +10575,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>434.25678681736503</v>
       </c>
-      <c r="N17" s="71"/>
+      <c r="N17" s="69"/>
       <c r="O17" s="49"/>
       <c r="P17" s="49"/>
       <c r="Q17" s="49"/>
@@ -10746,7 +10656,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>1302.9118591476149</v>
       </c>
-      <c r="N18" s="71"/>
+      <c r="N18" s="69"/>
       <c r="O18" s="49"/>
       <c r="P18" s="49"/>
       <c r="Q18" s="49"/>
@@ -10827,7 +10737,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>544.00109845204406</v>
       </c>
-      <c r="N19" s="71"/>
+      <c r="N19" s="69"/>
       <c r="O19" s="49"/>
       <c r="P19" s="49"/>
       <c r="Q19" s="49"/>
@@ -10908,7 +10818,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>2328.53923335421</v>
       </c>
-      <c r="N20" s="71"/>
+      <c r="N20" s="69"/>
       <c r="O20" s="49"/>
       <c r="P20" s="49"/>
       <c r="Q20" s="49"/>
@@ -10989,7 +10899,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>1431.93607093995</v>
       </c>
-      <c r="N21" s="71"/>
+      <c r="N21" s="69"/>
       <c r="O21" s="49"/>
       <c r="P21" s="49"/>
       <c r="Q21" s="49"/>
@@ -11070,7 +10980,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>64.6709263012321</v>
       </c>
-      <c r="N22" s="71"/>
+      <c r="N22" s="69"/>
       <c r="O22" s="49"/>
       <c r="P22" s="49"/>
       <c r="Q22" s="49"/>
@@ -11151,7 +11061,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>4755.7472488471903</v>
       </c>
-      <c r="N23" s="71"/>
+      <c r="N23" s="69"/>
       <c r="O23" s="49"/>
       <c r="P23" s="49"/>
       <c r="Q23" s="49"/>
@@ -11232,7 +11142,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>0</v>
       </c>
-      <c r="N24" s="71"/>
+      <c r="N24" s="69"/>
       <c r="O24" s="49"/>
       <c r="P24" s="49"/>
       <c r="Q24" s="49"/>
@@ -11313,7 +11223,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>1231.1769958674099</v>
       </c>
-      <c r="N25" s="71"/>
+      <c r="N25" s="69"/>
       <c r="O25" s="49"/>
       <c r="P25" s="49"/>
       <c r="Q25" s="49"/>
@@ -11394,7 +11304,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>402.83609970621001</v>
       </c>
-      <c r="N26" s="71"/>
+      <c r="N26" s="69"/>
       <c r="O26" s="49"/>
       <c r="P26" s="49"/>
       <c r="Q26" s="49"/>
@@ -11475,7 +11385,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>241.793529906478</v>
       </c>
-      <c r="N27" s="71"/>
+      <c r="N27" s="69"/>
       <c r="O27" s="49"/>
       <c r="P27" s="49"/>
       <c r="Q27" s="49"/>
@@ -11556,7 +11466,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>925.24196523349599</v>
       </c>
-      <c r="N28" s="71"/>
+      <c r="N28" s="69"/>
       <c r="O28" s="49"/>
       <c r="P28" s="49"/>
       <c r="Q28" s="49"/>
@@ -11637,7 +11547,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>0</v>
       </c>
-      <c r="N29" s="71"/>
+      <c r="N29" s="69"/>
       <c r="O29" s="49"/>
       <c r="P29" s="49"/>
       <c r="Q29" s="49"/>
@@ -11718,7 +11628,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>606.69910077138297</v>
       </c>
-      <c r="N30" s="71"/>
+      <c r="N30" s="69"/>
       <c r="O30" s="49"/>
       <c r="P30" s="49"/>
       <c r="Q30" s="49"/>
@@ -11799,7 +11709,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>344.66012513102203</v>
       </c>
-      <c r="N31" s="71"/>
+      <c r="N31" s="69"/>
       <c r="O31" s="49"/>
       <c r="P31" s="49"/>
       <c r="Q31" s="49"/>
@@ -11880,7 +11790,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>1005.78139797284</v>
       </c>
-      <c r="N32" s="71"/>
+      <c r="N32" s="69"/>
       <c r="O32" s="49"/>
       <c r="P32" s="49"/>
       <c r="Q32" s="49"/>
@@ -11928,16 +11838,16 @@
     </row>
     <row r="38" spans="3:43" ht="18">
       <c r="C38" s="45"/>
-      <c r="D38" s="69"/>
-      <c r="E38" s="69"/>
-      <c r="F38" s="69"/>
-      <c r="G38" s="69"/>
-      <c r="H38" s="69"/>
-      <c r="I38" s="69"/>
-      <c r="J38" s="69"/>
-      <c r="K38" s="69"/>
-      <c r="L38" s="69"/>
-      <c r="M38" s="69"/>
+      <c r="D38" s="67"/>
+      <c r="E38" s="67"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="67"/>
+      <c r="H38" s="67"/>
+      <c r="I38" s="67"/>
+      <c r="J38" s="67"/>
+      <c r="K38" s="67"/>
+      <c r="L38" s="67"/>
+      <c r="M38" s="67"/>
       <c r="W38" s="42"/>
       <c r="Y38" s="42"/>
       <c r="AI38" s="42"/>
@@ -11980,8 +11890,8 @@
     </row>
     <row r="44" spans="3:43" ht="18">
       <c r="C44" s="45"/>
-      <c r="F44" s="57"/>
-      <c r="G44" s="58"/>
+      <c r="F44" s="73"/>
+      <c r="G44" s="74"/>
       <c r="W44" s="42"/>
       <c r="Y44" s="42"/>
       <c r="AI44" s="42"/>
@@ -12107,18 +12017,18 @@
   </mergeCells>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="D38:M38">
-    <cfRule type="expression" dxfId="9" priority="3">
+    <cfRule type="expression" dxfId="7" priority="3">
       <formula>$R38&lt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="4">
+    <cfRule type="expression" dxfId="6" priority="4">
       <formula>$R38&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:M1">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>$R1&lt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>$R1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12130,9 +12040,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB5050C4-78ED-274F-A763-D0C4CB601279}">
   <dimension ref="A1:CH64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
@@ -12153,66 +12061,66 @@
       <c r="C1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="70" t="s">
         <v>227</v>
       </c>
-      <c r="E1" s="72" t="s">
+      <c r="E1" s="70" t="s">
         <v>242</v>
       </c>
-      <c r="F1" s="72" t="s">
+      <c r="F1" s="70" t="s">
         <v>237</v>
       </c>
-      <c r="G1" s="72" t="s">
+      <c r="G1" s="70" t="s">
         <v>264</v>
       </c>
-      <c r="H1" s="72" t="s">
+      <c r="H1" s="70" t="s">
         <v>225</v>
       </c>
-      <c r="I1" s="72" t="s">
+      <c r="I1" s="70" t="s">
         <v>261</v>
       </c>
-      <c r="J1" s="72" t="s">
+      <c r="J1" s="70" t="s">
         <v>259</v>
       </c>
-      <c r="K1" s="72" t="s">
+      <c r="K1" s="70" t="s">
         <v>255</v>
       </c>
-      <c r="L1" s="72" t="s">
+      <c r="L1" s="70" t="s">
         <v>229</v>
       </c>
-      <c r="M1" s="73" t="s">
+      <c r="M1" s="71" t="s">
         <v>245</v>
       </c>
-      <c r="N1" s="70"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
-      <c r="W1" s="69"/>
-      <c r="X1" s="69"/>
-      <c r="Y1" s="69"/>
-      <c r="Z1" s="69"/>
-      <c r="AA1" s="69"/>
-      <c r="AB1" s="69"/>
-      <c r="AC1" s="69"/>
-      <c r="AD1" s="69"/>
-      <c r="AE1" s="69"/>
-      <c r="AF1" s="69"/>
-      <c r="AG1" s="66"/>
-      <c r="AH1" s="66"/>
-      <c r="AI1" s="66"/>
-      <c r="AJ1" s="66"/>
-      <c r="AK1" s="66"/>
-      <c r="AL1" s="66"/>
-      <c r="AM1" s="66"/>
-      <c r="AN1" s="66"/>
-      <c r="AO1" s="66"/>
-      <c r="AP1" s="66"/>
-      <c r="AQ1" s="66"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
+      <c r="W1" s="67"/>
+      <c r="X1" s="67"/>
+      <c r="Y1" s="67"/>
+      <c r="Z1" s="67"/>
+      <c r="AA1" s="67"/>
+      <c r="AB1" s="67"/>
+      <c r="AC1" s="67"/>
+      <c r="AD1" s="67"/>
+      <c r="AE1" s="67"/>
+      <c r="AF1" s="67"/>
+      <c r="AG1" s="64"/>
+      <c r="AH1" s="64"/>
+      <c r="AI1" s="64"/>
+      <c r="AJ1" s="64"/>
+      <c r="AK1" s="64"/>
+      <c r="AL1" s="64"/>
+      <c r="AM1" s="64"/>
+      <c r="AN1" s="64"/>
+      <c r="AO1" s="64"/>
+      <c r="AP1" s="64"/>
+      <c r="AQ1" s="64"/>
     </row>
     <row r="2" spans="1:86">
       <c r="A2" s="38">
@@ -12264,7 +12172,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>1374.3692861376221</v>
       </c>
-      <c r="N2" s="71"/>
+      <c r="N2" s="69"/>
       <c r="O2" s="49"/>
       <c r="P2" s="49"/>
       <c r="Q2" s="49"/>
@@ -12345,7 +12253,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>1834.762718228978</v>
       </c>
-      <c r="N3" s="71"/>
+      <c r="N3" s="69"/>
       <c r="O3" s="49"/>
       <c r="P3" s="49"/>
       <c r="Q3" s="49"/>
@@ -12426,7 +12334,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>674.31636602591141</v>
       </c>
-      <c r="N4" s="71"/>
+      <c r="N4" s="69"/>
       <c r="O4" s="49"/>
       <c r="P4" s="49"/>
       <c r="Q4" s="49"/>
@@ -12507,7 +12415,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>1086.2300189151169</v>
       </c>
-      <c r="N5" s="71"/>
+      <c r="N5" s="69"/>
       <c r="O5" s="49"/>
       <c r="P5" s="49"/>
       <c r="Q5" s="49"/>
@@ -12588,7 +12496,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>741.06675360663155</v>
       </c>
-      <c r="N6" s="71"/>
+      <c r="N6" s="69"/>
       <c r="O6" s="49"/>
       <c r="P6" s="49"/>
       <c r="Q6" s="49"/>
@@ -12669,7 +12577,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>20.651117272596661</v>
       </c>
-      <c r="N7" s="71"/>
+      <c r="N7" s="69"/>
       <c r="O7" s="49"/>
       <c r="P7" s="49"/>
       <c r="Q7" s="49"/>
@@ -12699,7 +12607,7 @@
       <c r="AO7" s="49"/>
       <c r="AP7" s="49"/>
       <c r="AQ7" s="49"/>
-      <c r="AR7" s="65"/>
+      <c r="AR7" s="63"/>
       <c r="AS7" s="26"/>
       <c r="AT7" s="45"/>
       <c r="AU7" s="49"/>
@@ -12793,7 +12701,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>1348.5256361445729</v>
       </c>
-      <c r="N8" s="71"/>
+      <c r="N8" s="69"/>
       <c r="O8" s="49"/>
       <c r="P8" s="49"/>
       <c r="Q8" s="49"/>
@@ -12874,7 +12782,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>300.44109607687471</v>
       </c>
-      <c r="N9" s="71"/>
+      <c r="N9" s="69"/>
       <c r="O9" s="49"/>
       <c r="P9" s="49"/>
       <c r="Q9" s="49"/>
@@ -12955,7 +12863,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>319.72531351906872</v>
       </c>
-      <c r="N10" s="71"/>
+      <c r="N10" s="69"/>
       <c r="O10" s="49"/>
       <c r="P10" s="49"/>
       <c r="Q10" s="49"/>
@@ -13036,7 +12944,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>435.17368461048198</v>
       </c>
-      <c r="N11" s="71"/>
+      <c r="N11" s="69"/>
       <c r="O11" s="49"/>
       <c r="P11" s="49"/>
       <c r="Q11" s="49"/>
@@ -13117,7 +13025,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>1076.227771609111</v>
       </c>
-      <c r="N12" s="71"/>
+      <c r="N12" s="69"/>
       <c r="O12" s="49"/>
       <c r="P12" s="49"/>
       <c r="Q12" s="49"/>
@@ -13198,7 +13106,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>656.25692228643356</v>
       </c>
-      <c r="N13" s="71"/>
+      <c r="N13" s="69"/>
       <c r="O13" s="49"/>
       <c r="P13" s="49"/>
       <c r="Q13" s="49"/>
@@ -13279,7 +13187,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>4595.7992084259959</v>
       </c>
-      <c r="N14" s="71"/>
+      <c r="N14" s="69"/>
       <c r="O14" s="49"/>
       <c r="P14" s="49"/>
       <c r="Q14" s="49"/>
@@ -13360,7 +13268,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>2077.4709960115219</v>
       </c>
-      <c r="N15" s="71"/>
+      <c r="N15" s="69"/>
       <c r="O15" s="49"/>
       <c r="P15" s="49"/>
       <c r="Q15" s="49"/>
@@ -13441,7 +13349,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>2835.8143049253299</v>
       </c>
-      <c r="N16" s="71"/>
+      <c r="N16" s="69"/>
       <c r="O16" s="49"/>
       <c r="P16" s="49"/>
       <c r="Q16" s="49"/>
@@ -13522,7 +13430,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>857.26031786343526</v>
       </c>
-      <c r="N17" s="71"/>
+      <c r="N17" s="69"/>
       <c r="O17" s="49"/>
       <c r="P17" s="49"/>
       <c r="Q17" s="49"/>
@@ -13603,7 +13511,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>3092.8487851827922</v>
       </c>
-      <c r="N18" s="71"/>
+      <c r="N18" s="69"/>
       <c r="O18" s="49"/>
       <c r="P18" s="49"/>
       <c r="Q18" s="49"/>
@@ -13684,7 +13592,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>495.26310115674193</v>
       </c>
-      <c r="N19" s="71"/>
+      <c r="N19" s="69"/>
       <c r="O19" s="49"/>
       <c r="P19" s="49"/>
       <c r="Q19" s="49"/>
@@ -13765,7 +13673,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>1038.0248044664229</v>
       </c>
-      <c r="N20" s="71"/>
+      <c r="N20" s="69"/>
       <c r="O20" s="49"/>
       <c r="P20" s="49"/>
       <c r="Q20" s="49"/>
@@ -13846,7 +13754,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>946.07938542208444</v>
       </c>
-      <c r="N21" s="71"/>
+      <c r="N21" s="69"/>
       <c r="O21" s="49"/>
       <c r="P21" s="49"/>
       <c r="Q21" s="49"/>
@@ -13927,7 +13835,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>292.25556976952748</v>
       </c>
-      <c r="N22" s="71"/>
+      <c r="N22" s="69"/>
       <c r="O22" s="49"/>
       <c r="P22" s="49"/>
       <c r="Q22" s="49"/>
@@ -14008,7 +13916,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>7215.57558528557</v>
       </c>
-      <c r="N23" s="71"/>
+      <c r="N23" s="69"/>
       <c r="O23" s="49"/>
       <c r="P23" s="49"/>
       <c r="Q23" s="49"/>
@@ -14089,7 +13997,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>252.58931643295949</v>
       </c>
-      <c r="N24" s="71"/>
+      <c r="N24" s="69"/>
       <c r="O24" s="49"/>
       <c r="P24" s="49"/>
       <c r="Q24" s="49"/>
@@ -14170,7 +14078,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>833.81109534753091</v>
       </c>
-      <c r="N25" s="71"/>
+      <c r="N25" s="69"/>
       <c r="O25" s="49"/>
       <c r="P25" s="49"/>
       <c r="Q25" s="49"/>
@@ -14251,7 +14159,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>873.69068690720576</v>
       </c>
-      <c r="N26" s="71"/>
+      <c r="N26" s="69"/>
       <c r="O26" s="49"/>
       <c r="P26" s="49"/>
       <c r="Q26" s="49"/>
@@ -14332,7 +14240,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>657.07581565725798</v>
       </c>
-      <c r="N27" s="71"/>
+      <c r="N27" s="69"/>
       <c r="O27" s="49"/>
       <c r="P27" s="49"/>
       <c r="Q27" s="49"/>
@@ -14413,7 +14321,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>3596.5257395527678</v>
       </c>
-      <c r="N28" s="71"/>
+      <c r="N28" s="69"/>
       <c r="O28" s="49"/>
       <c r="P28" s="49"/>
       <c r="Q28" s="49"/>
@@ -14494,7 +14402,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>0</v>
       </c>
-      <c r="N29" s="71"/>
+      <c r="N29" s="69"/>
       <c r="O29" s="49"/>
       <c r="P29" s="49"/>
       <c r="Q29" s="49"/>
@@ -14575,7 +14483,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>1555.8462387437489</v>
       </c>
-      <c r="N30" s="71"/>
+      <c r="N30" s="69"/>
       <c r="O30" s="49"/>
       <c r="P30" s="49"/>
       <c r="Q30" s="49"/>
@@ -14656,7 +14564,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>648.35874488902346</v>
       </c>
-      <c r="N31" s="71"/>
+      <c r="N31" s="69"/>
       <c r="O31" s="49"/>
       <c r="P31" s="49"/>
       <c r="Q31" s="49"/>
@@ -14737,7 +14645,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>1297.46860824903</v>
       </c>
-      <c r="N32" s="71"/>
+      <c r="N32" s="69"/>
       <c r="O32" s="49"/>
       <c r="P32" s="49"/>
       <c r="Q32" s="49"/>
@@ -14785,16 +14693,16 @@
     </row>
     <row r="38" spans="3:43" ht="18">
       <c r="C38" s="45"/>
-      <c r="D38" s="69"/>
-      <c r="E38" s="69"/>
-      <c r="F38" s="69"/>
-      <c r="G38" s="69"/>
-      <c r="H38" s="69"/>
-      <c r="I38" s="69"/>
-      <c r="J38" s="69"/>
-      <c r="K38" s="69"/>
-      <c r="L38" s="69"/>
-      <c r="M38" s="69"/>
+      <c r="D38" s="67"/>
+      <c r="E38" s="67"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="67"/>
+      <c r="H38" s="67"/>
+      <c r="I38" s="67"/>
+      <c r="J38" s="67"/>
+      <c r="K38" s="67"/>
+      <c r="L38" s="67"/>
+      <c r="M38" s="67"/>
       <c r="W38" s="42"/>
       <c r="Y38" s="42"/>
       <c r="AI38" s="42"/>
@@ -14837,8 +14745,8 @@
     </row>
     <row r="44" spans="3:43" ht="18">
       <c r="C44" s="45"/>
-      <c r="F44" s="57"/>
-      <c r="G44" s="58"/>
+      <c r="F44" s="73"/>
+      <c r="G44" s="74"/>
       <c r="W44" s="42"/>
       <c r="Y44" s="42"/>
       <c r="AI44" s="42"/>
@@ -40978,8 +40886,8 @@
     </row>
     <row r="44" spans="3:43" ht="18">
       <c r="C44" s="45"/>
-      <c r="F44" s="57"/>
-      <c r="G44" s="58"/>
+      <c r="F44" s="73"/>
+      <c r="G44" s="74"/>
       <c r="W44" s="42"/>
       <c r="Y44" s="42"/>
       <c r="AI44" s="42"/>
@@ -41135,104 +41043,104 @@
       <c r="C1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="57" t="s">
         <v>233</v>
       </c>
-      <c r="E1" s="60" t="s">
+      <c r="E1" s="58" t="s">
         <v>229</v>
       </c>
-      <c r="F1" s="61" t="s">
+      <c r="F1" s="59" t="s">
         <v>225</v>
       </c>
-      <c r="G1" s="62" t="s">
+      <c r="G1" s="60" t="s">
         <v>253</v>
       </c>
-      <c r="H1" s="62" t="s">
+      <c r="H1" s="60" t="s">
         <v>244</v>
       </c>
-      <c r="I1" s="63" t="s">
+      <c r="I1" s="61" t="s">
         <v>234</v>
       </c>
-      <c r="J1" s="60" t="s">
+      <c r="J1" s="58" t="s">
         <v>228</v>
       </c>
-      <c r="K1" s="61" t="s">
+      <c r="K1" s="59" t="s">
         <v>256</v>
       </c>
-      <c r="L1" s="63" t="s">
+      <c r="L1" s="61" t="s">
         <v>242</v>
       </c>
-      <c r="M1" s="60" t="s">
+      <c r="M1" s="58" t="s">
         <v>227</v>
       </c>
-      <c r="N1" s="60" t="s">
+      <c r="N1" s="58" t="s">
         <v>264</v>
       </c>
-      <c r="O1" s="61" t="s">
+      <c r="O1" s="59" t="s">
         <v>226</v>
       </c>
-      <c r="P1" s="63" t="s">
+      <c r="P1" s="61" t="s">
         <v>245</v>
       </c>
-      <c r="Q1" s="60" t="s">
+      <c r="Q1" s="58" t="s">
         <v>252</v>
       </c>
-      <c r="R1" s="60" t="s">
+      <c r="R1" s="58" t="s">
         <v>232</v>
       </c>
-      <c r="S1" s="60" t="s">
+      <c r="S1" s="58" t="s">
         <v>246</v>
       </c>
-      <c r="T1" s="61" t="s">
+      <c r="T1" s="59" t="s">
         <v>241</v>
       </c>
-      <c r="U1" s="63" t="s">
+      <c r="U1" s="61" t="s">
         <v>240</v>
       </c>
-      <c r="V1" s="61" t="s">
+      <c r="V1" s="59" t="s">
         <v>254</v>
       </c>
-      <c r="W1" s="63" t="s">
+      <c r="W1" s="61" t="s">
         <v>230</v>
       </c>
-      <c r="X1" s="60" t="s">
+      <c r="X1" s="58" t="s">
         <v>250</v>
       </c>
-      <c r="Y1" s="60" t="s">
+      <c r="Y1" s="58" t="s">
         <v>247</v>
       </c>
-      <c r="Z1" s="60" t="s">
+      <c r="Z1" s="58" t="s">
         <v>236</v>
       </c>
-      <c r="AA1" s="61" t="s">
+      <c r="AA1" s="59" t="s">
         <v>237</v>
       </c>
-      <c r="AB1" s="62" t="s">
+      <c r="AB1" s="60" t="s">
         <v>255</v>
       </c>
-      <c r="AC1" s="62" t="s">
+      <c r="AC1" s="60" t="s">
         <v>259</v>
       </c>
-      <c r="AD1" s="62" t="s">
+      <c r="AD1" s="60" t="s">
         <v>261</v>
       </c>
-      <c r="AE1" s="59" t="s">
+      <c r="AE1" s="57" t="s">
         <v>249</v>
       </c>
-      <c r="AF1" s="64" t="s">
+      <c r="AF1" s="62" t="s">
         <v>263</v>
       </c>
-      <c r="AG1" s="67"/>
-      <c r="AH1" s="66"/>
-      <c r="AI1" s="66"/>
-      <c r="AJ1" s="66"/>
-      <c r="AK1" s="66"/>
-      <c r="AL1" s="66"/>
-      <c r="AM1" s="66"/>
-      <c r="AN1" s="66"/>
-      <c r="AO1" s="66"/>
-      <c r="AP1" s="66"/>
-      <c r="AQ1" s="66"/>
+      <c r="AG1" s="65"/>
+      <c r="AH1" s="64"/>
+      <c r="AI1" s="64"/>
+      <c r="AJ1" s="64"/>
+      <c r="AK1" s="64"/>
+      <c r="AL1" s="64"/>
+      <c r="AM1" s="64"/>
+      <c r="AN1" s="64"/>
+      <c r="AO1" s="64"/>
+      <c r="AP1" s="64"/>
+      <c r="AQ1" s="64"/>
     </row>
     <row r="2" spans="1:86" ht="16" thickTop="1">
       <c r="A2" s="38">
@@ -41360,7 +41268,7 @@
         <f>HLOOKUP(AF$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>77.808941016487807</v>
       </c>
-      <c r="AG2" s="68"/>
+      <c r="AG2" s="66"/>
       <c r="AH2" s="49"/>
       <c r="AI2" s="49"/>
       <c r="AJ2" s="50"/>
@@ -41498,7 +41406,7 @@
         <f>HLOOKUP(AF$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>65.168697882292093</v>
       </c>
-      <c r="AG3" s="68"/>
+      <c r="AG3" s="66"/>
       <c r="AH3" s="49"/>
       <c r="AI3" s="49"/>
       <c r="AJ3" s="50"/>
@@ -41636,7 +41544,7 @@
         <f>HLOOKUP(AF$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>45.016785567776999</v>
       </c>
-      <c r="AG4" s="68"/>
+      <c r="AG4" s="66"/>
       <c r="AH4" s="49"/>
       <c r="AI4" s="49"/>
       <c r="AJ4" s="50"/>
@@ -41774,7 +41682,7 @@
         <f>HLOOKUP(AF$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>0</v>
       </c>
-      <c r="AG5" s="68"/>
+      <c r="AG5" s="66"/>
       <c r="AH5" s="49"/>
       <c r="AI5" s="49"/>
       <c r="AJ5" s="50"/>
@@ -41912,7 +41820,7 @@
         <f>HLOOKUP(AF$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>47.180201892502403</v>
       </c>
-      <c r="AG6" s="68"/>
+      <c r="AG6" s="66"/>
       <c r="AH6" s="49"/>
       <c r="AI6" s="49"/>
       <c r="AJ6" s="50"/>
@@ -42050,7 +41958,7 @@
         <f>HLOOKUP(AF$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>13.0272790712412</v>
       </c>
-      <c r="AG7" s="68"/>
+      <c r="AG7" s="66"/>
       <c r="AH7" s="49"/>
       <c r="AI7" s="49"/>
       <c r="AJ7" s="50"/>
@@ -42061,7 +41969,7 @@
       <c r="AO7" s="49"/>
       <c r="AP7" s="49"/>
       <c r="AQ7" s="49"/>
-      <c r="AR7" s="65"/>
+      <c r="AR7" s="63"/>
       <c r="AS7" s="26"/>
       <c r="AT7" s="45"/>
       <c r="AU7" s="49"/>
@@ -42231,7 +42139,7 @@
         <f>HLOOKUP(AF$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>76.791627233103355</v>
       </c>
-      <c r="AG8" s="68"/>
+      <c r="AG8" s="66"/>
       <c r="AH8" s="49"/>
       <c r="AI8" s="49"/>
       <c r="AJ8" s="50"/>
@@ -42369,7 +42277,7 @@
         <f>HLOOKUP(AF$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>25.885465190130748</v>
       </c>
-      <c r="AG9" s="68"/>
+      <c r="AG9" s="66"/>
       <c r="AH9" s="49"/>
       <c r="AI9" s="49"/>
       <c r="AJ9" s="50"/>
@@ -42507,7 +42415,7 @@
         <f>HLOOKUP(AF$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>39.794464414405603</v>
       </c>
-      <c r="AG10" s="68"/>
+      <c r="AG10" s="66"/>
       <c r="AH10" s="49"/>
       <c r="AI10" s="49"/>
       <c r="AJ10" s="50"/>
@@ -42645,7 +42553,7 @@
         <f>HLOOKUP(AF$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>53.003891032633852</v>
       </c>
-      <c r="AG11" s="68"/>
+      <c r="AG11" s="66"/>
       <c r="AH11" s="49"/>
       <c r="AI11" s="49"/>
       <c r="AJ11" s="50"/>
@@ -42783,7 +42691,7 @@
         <f>HLOOKUP(AF$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>40.825860498930801</v>
       </c>
-      <c r="AG12" s="68"/>
+      <c r="AG12" s="66"/>
       <c r="AH12" s="49"/>
       <c r="AI12" s="49"/>
       <c r="AJ12" s="50"/>
@@ -42921,7 +42829,7 @@
         <f>HLOOKUP(AF$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>71.8656830909988</v>
       </c>
-      <c r="AG13" s="68"/>
+      <c r="AG13" s="66"/>
       <c r="AH13" s="49"/>
       <c r="AI13" s="49"/>
       <c r="AJ13" s="50"/>
@@ -43059,7 +42967,7 @@
         <f>HLOOKUP(AF$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>79.816672560791261</v>
       </c>
-      <c r="AG14" s="68"/>
+      <c r="AG14" s="66"/>
       <c r="AH14" s="49"/>
       <c r="AI14" s="49"/>
       <c r="AJ14" s="50"/>
@@ -43197,7 +43105,7 @@
         <f>HLOOKUP(AF$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>84.859156577608246</v>
       </c>
-      <c r="AG15" s="68"/>
+      <c r="AG15" s="66"/>
       <c r="AH15" s="49"/>
       <c r="AI15" s="49"/>
       <c r="AJ15" s="50"/>
@@ -43335,7 +43243,7 @@
         <f>HLOOKUP(AF$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>77.608963557631597</v>
       </c>
-      <c r="AG16" s="68"/>
+      <c r="AG16" s="66"/>
       <c r="AH16" s="49"/>
       <c r="AI16" s="49"/>
       <c r="AJ16" s="50"/>
@@ -43473,7 +43381,7 @@
         <f>HLOOKUP(AF$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>40.630866325403247</v>
       </c>
-      <c r="AG17" s="68"/>
+      <c r="AG17" s="66"/>
       <c r="AH17" s="49"/>
       <c r="AI17" s="49"/>
       <c r="AJ17" s="50"/>
@@ -43611,7 +43519,7 @@
         <f>HLOOKUP(AF$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>59.155476888058097</v>
       </c>
-      <c r="AG18" s="68"/>
+      <c r="AG18" s="66"/>
       <c r="AH18" s="49"/>
       <c r="AI18" s="49"/>
       <c r="AJ18" s="50"/>
@@ -43749,7 +43657,7 @@
         <f>HLOOKUP(AF$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>34.372492083803053</v>
       </c>
-      <c r="AG19" s="68"/>
+      <c r="AG19" s="66"/>
       <c r="AH19" s="49"/>
       <c r="AI19" s="49"/>
       <c r="AJ19" s="50"/>
@@ -43887,7 +43795,7 @@
         <f>HLOOKUP(AF$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>65.039769202217897</v>
       </c>
-      <c r="AG20" s="68"/>
+      <c r="AG20" s="66"/>
       <c r="AH20" s="49"/>
       <c r="AI20" s="49"/>
       <c r="AJ20" s="50"/>
@@ -44025,7 +43933,7 @@
         <f>HLOOKUP(AF$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>53.003221404351997</v>
       </c>
-      <c r="AG21" s="68"/>
+      <c r="AG21" s="66"/>
       <c r="AH21" s="49"/>
       <c r="AI21" s="49"/>
       <c r="AJ21" s="50"/>
@@ -44163,7 +44071,7 @@
         <f>HLOOKUP(AF$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>40.448548326588899</v>
       </c>
-      <c r="AG22" s="68"/>
+      <c r="AG22" s="66"/>
       <c r="AH22" s="49"/>
       <c r="AI22" s="49"/>
       <c r="AJ22" s="50"/>
@@ -44301,7 +44209,7 @@
         <f>HLOOKUP(AF$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>95.945552687887002</v>
       </c>
-      <c r="AG23" s="68"/>
+      <c r="AG23" s="66"/>
       <c r="AH23" s="49"/>
       <c r="AI23" s="49"/>
       <c r="AJ23" s="50"/>
@@ -44439,7 +44347,7 @@
         <f>HLOOKUP(AF$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>0</v>
       </c>
-      <c r="AG24" s="68"/>
+      <c r="AG24" s="66"/>
       <c r="AH24" s="49"/>
       <c r="AI24" s="49"/>
       <c r="AJ24" s="50"/>
@@ -44577,7 +44485,7 @@
         <f>HLOOKUP(AF$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>58.679394630402577</v>
       </c>
-      <c r="AG25" s="68"/>
+      <c r="AG25" s="66"/>
       <c r="AH25" s="49"/>
       <c r="AI25" s="49"/>
       <c r="AJ25" s="50"/>
@@ -44715,7 +44623,7 @@
         <f>HLOOKUP(AF$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>33.518836446007697</v>
       </c>
-      <c r="AG26" s="68"/>
+      <c r="AG26" s="66"/>
       <c r="AH26" s="49"/>
       <c r="AI26" s="49"/>
       <c r="AJ26" s="50"/>
@@ -44853,7 +44761,7 @@
         <f>HLOOKUP(AF$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>37.246509345826702</v>
       </c>
-      <c r="AG27" s="68"/>
+      <c r="AG27" s="66"/>
       <c r="AH27" s="49"/>
       <c r="AI27" s="49"/>
       <c r="AJ27" s="50"/>
@@ -44991,7 +44899,7 @@
         <f>HLOOKUP(AF$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>41.2992319719473</v>
       </c>
-      <c r="AG28" s="68"/>
+      <c r="AG28" s="66"/>
       <c r="AH28" s="49"/>
       <c r="AI28" s="49"/>
       <c r="AJ28" s="50"/>
@@ -45129,7 +45037,7 @@
         <f>HLOOKUP(AF$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>0</v>
       </c>
-      <c r="AG29" s="68"/>
+      <c r="AG29" s="66"/>
       <c r="AH29" s="49"/>
       <c r="AI29" s="49"/>
       <c r="AJ29" s="50"/>
@@ -45267,7 +45175,7 @@
         <f>HLOOKUP(AF$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>54.356816668196103</v>
       </c>
-      <c r="AG30" s="68"/>
+      <c r="AG30" s="66"/>
       <c r="AH30" s="49"/>
       <c r="AI30" s="49"/>
       <c r="AJ30" s="50"/>
@@ -45405,7 +45313,7 @@
         <f>HLOOKUP(AF$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>38.751971532934</v>
       </c>
-      <c r="AG31" s="68"/>
+      <c r="AG31" s="66"/>
       <c r="AH31" s="49"/>
       <c r="AI31" s="49"/>
       <c r="AJ31" s="50"/>
@@ -45543,7 +45451,7 @@
         <f>HLOOKUP(AF$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>63.881999205450697</v>
       </c>
-      <c r="AG32" s="68"/>
+      <c r="AG32" s="66"/>
       <c r="AH32" s="49"/>
       <c r="AI32" s="49"/>
       <c r="AJ32" s="50"/>
@@ -45614,8 +45522,8 @@
     </row>
     <row r="44" spans="3:43" ht="18">
       <c r="C44" s="45"/>
-      <c r="F44" s="57"/>
-      <c r="G44" s="58"/>
+      <c r="F44" s="73"/>
+      <c r="G44" s="74"/>
       <c r="W44" s="42"/>
       <c r="Y44" s="42"/>
       <c r="AI44" s="42"/>
@@ -45748,8 +45656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF1A7F66-F2B5-5848-A75F-123EBC797F9F}">
   <dimension ref="A1:CH64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -45771,66 +45679,66 @@
       <c r="C1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="58" t="s">
         <v>250</v>
       </c>
-      <c r="E1" s="60" t="s">
+      <c r="E1" s="58" t="s">
         <v>236</v>
       </c>
-      <c r="F1" s="60" t="s">
+      <c r="F1" s="58" t="s">
         <v>241</v>
       </c>
-      <c r="G1" s="60" t="s">
+      <c r="G1" s="58" t="s">
         <v>228</v>
       </c>
-      <c r="H1" s="60" t="s">
+      <c r="H1" s="58" t="s">
         <v>233</v>
       </c>
-      <c r="I1" s="60" t="s">
+      <c r="I1" s="58" t="s">
         <v>259</v>
       </c>
-      <c r="J1" s="60" t="s">
+      <c r="J1" s="58" t="s">
         <v>255</v>
       </c>
-      <c r="K1" s="60" t="s">
+      <c r="K1" s="58" t="s">
         <v>256</v>
       </c>
-      <c r="L1" s="60" t="s">
+      <c r="L1" s="58" t="s">
         <v>261</v>
       </c>
-      <c r="M1" s="64" t="s">
+      <c r="M1" s="62" t="s">
         <v>254</v>
       </c>
-      <c r="N1" s="70"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
-      <c r="W1" s="69"/>
-      <c r="X1" s="69"/>
-      <c r="Y1" s="69"/>
-      <c r="Z1" s="69"/>
-      <c r="AA1" s="69"/>
-      <c r="AB1" s="69"/>
-      <c r="AC1" s="69"/>
-      <c r="AD1" s="69"/>
-      <c r="AE1" s="69"/>
-      <c r="AF1" s="69"/>
-      <c r="AG1" s="66"/>
-      <c r="AH1" s="66"/>
-      <c r="AI1" s="66"/>
-      <c r="AJ1" s="66"/>
-      <c r="AK1" s="66"/>
-      <c r="AL1" s="66"/>
-      <c r="AM1" s="66"/>
-      <c r="AN1" s="66"/>
-      <c r="AO1" s="66"/>
-      <c r="AP1" s="66"/>
-      <c r="AQ1" s="66"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
+      <c r="W1" s="67"/>
+      <c r="X1" s="67"/>
+      <c r="Y1" s="67"/>
+      <c r="Z1" s="67"/>
+      <c r="AA1" s="67"/>
+      <c r="AB1" s="67"/>
+      <c r="AC1" s="67"/>
+      <c r="AD1" s="67"/>
+      <c r="AE1" s="67"/>
+      <c r="AF1" s="67"/>
+      <c r="AG1" s="64"/>
+      <c r="AH1" s="64"/>
+      <c r="AI1" s="64"/>
+      <c r="AJ1" s="64"/>
+      <c r="AK1" s="64"/>
+      <c r="AL1" s="64"/>
+      <c r="AM1" s="64"/>
+      <c r="AN1" s="64"/>
+      <c r="AO1" s="64"/>
+      <c r="AP1" s="64"/>
+      <c r="AQ1" s="64"/>
     </row>
     <row r="2" spans="1:86">
       <c r="A2" s="38">
@@ -45882,7 +45790,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>0.88624996542600609</v>
       </c>
-      <c r="N2" s="71"/>
+      <c r="N2" s="69"/>
       <c r="O2" s="49"/>
       <c r="P2" s="49"/>
       <c r="Q2" s="49"/>
@@ -45963,7 +45871,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>0.68009754843512304</v>
       </c>
-      <c r="N3" s="71"/>
+      <c r="N3" s="69"/>
       <c r="O3" s="49"/>
       <c r="P3" s="49"/>
       <c r="Q3" s="49"/>
@@ -46044,7 +45952,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>0.474930634513618</v>
       </c>
-      <c r="N4" s="71"/>
+      <c r="N4" s="69"/>
       <c r="O4" s="49"/>
       <c r="P4" s="49"/>
       <c r="Q4" s="49"/>
@@ -46125,7 +46033,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>0</v>
       </c>
-      <c r="N5" s="71"/>
+      <c r="N5" s="69"/>
       <c r="O5" s="49"/>
       <c r="P5" s="49"/>
       <c r="Q5" s="49"/>
@@ -46206,7 +46114,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>0.63276356043812998</v>
       </c>
-      <c r="N6" s="71"/>
+      <c r="N6" s="69"/>
       <c r="O6" s="49"/>
       <c r="P6" s="49"/>
       <c r="Q6" s="49"/>
@@ -46287,7 +46195,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>0.34846230887246299</v>
       </c>
-      <c r="N7" s="71"/>
+      <c r="N7" s="69"/>
       <c r="O7" s="49"/>
       <c r="P7" s="49"/>
       <c r="Q7" s="49"/>
@@ -46317,7 +46225,7 @@
       <c r="AO7" s="49"/>
       <c r="AP7" s="49"/>
       <c r="AQ7" s="49"/>
-      <c r="AR7" s="65"/>
+      <c r="AR7" s="63"/>
       <c r="AS7" s="26"/>
       <c r="AT7" s="45"/>
       <c r="AU7" s="49"/>
@@ -46411,7 +46319,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>0.76331340525113545</v>
       </c>
-      <c r="N8" s="71"/>
+      <c r="N8" s="69"/>
       <c r="O8" s="49"/>
       <c r="P8" s="49"/>
       <c r="Q8" s="49"/>
@@ -46492,7 +46400,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>0.62720545133928307</v>
       </c>
-      <c r="N9" s="71"/>
+      <c r="N9" s="69"/>
       <c r="O9" s="49"/>
       <c r="P9" s="49"/>
       <c r="Q9" s="49"/>
@@ -46573,7 +46481,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>0.77297063026677948</v>
       </c>
-      <c r="N10" s="71"/>
+      <c r="N10" s="69"/>
       <c r="O10" s="49"/>
       <c r="P10" s="49"/>
       <c r="Q10" s="49"/>
@@ -46654,7 +46562,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>0.82732860341673353</v>
       </c>
-      <c r="N11" s="71"/>
+      <c r="N11" s="69"/>
       <c r="O11" s="49"/>
       <c r="P11" s="49"/>
       <c r="Q11" s="49"/>
@@ -46735,7 +46643,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>0.69478396228049499</v>
       </c>
-      <c r="N12" s="71"/>
+      <c r="N12" s="69"/>
       <c r="O12" s="49"/>
       <c r="P12" s="49"/>
       <c r="Q12" s="49"/>
@@ -46816,7 +46724,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>0.58883849392090004</v>
       </c>
-      <c r="N13" s="71"/>
+      <c r="N13" s="69"/>
       <c r="O13" s="49"/>
       <c r="P13" s="49"/>
       <c r="Q13" s="49"/>
@@ -46897,7 +46805,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>0.69639865498445597</v>
       </c>
-      <c r="N14" s="71"/>
+      <c r="N14" s="69"/>
       <c r="O14" s="49"/>
       <c r="P14" s="49"/>
       <c r="Q14" s="49"/>
@@ -46978,7 +46886,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>0.54571223597561191</v>
       </c>
-      <c r="N15" s="71"/>
+      <c r="N15" s="69"/>
       <c r="O15" s="49"/>
       <c r="P15" s="49"/>
       <c r="Q15" s="49"/>
@@ -47059,7 +46967,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>0.366211325269305</v>
       </c>
-      <c r="N16" s="71"/>
+      <c r="N16" s="69"/>
       <c r="O16" s="49"/>
       <c r="P16" s="49"/>
       <c r="Q16" s="49"/>
@@ -47140,7 +47048,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>0.66054458940292005</v>
       </c>
-      <c r="N17" s="71"/>
+      <c r="N17" s="69"/>
       <c r="O17" s="49"/>
       <c r="P17" s="49"/>
       <c r="Q17" s="49"/>
@@ -47221,7 +47129,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>0.72147322688438043</v>
       </c>
-      <c r="N18" s="71"/>
+      <c r="N18" s="69"/>
       <c r="O18" s="49"/>
       <c r="P18" s="49"/>
       <c r="Q18" s="49"/>
@@ -47302,7 +47210,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>0.64514615236084349</v>
       </c>
-      <c r="N19" s="71"/>
+      <c r="N19" s="69"/>
       <c r="O19" s="49"/>
       <c r="P19" s="49"/>
       <c r="Q19" s="49"/>
@@ -47383,7 +47291,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>0.88774991456827601</v>
       </c>
-      <c r="N20" s="71"/>
+      <c r="N20" s="69"/>
       <c r="O20" s="49"/>
       <c r="P20" s="49"/>
       <c r="Q20" s="49"/>
@@ -47464,7 +47372,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>0.81385180044955197</v>
       </c>
-      <c r="N21" s="71"/>
+      <c r="N21" s="69"/>
       <c r="O21" s="49"/>
       <c r="P21" s="49"/>
       <c r="Q21" s="49"/>
@@ -47545,7 +47453,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>0.61575453658665602</v>
       </c>
-      <c r="N22" s="71"/>
+      <c r="N22" s="69"/>
       <c r="O22" s="49"/>
       <c r="P22" s="49"/>
       <c r="Q22" s="49"/>
@@ -47626,7 +47534,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>0.83243359397528505</v>
       </c>
-      <c r="N23" s="71"/>
+      <c r="N23" s="69"/>
       <c r="O23" s="49"/>
       <c r="P23" s="49"/>
       <c r="Q23" s="49"/>
@@ -47707,7 +47615,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>0</v>
       </c>
-      <c r="N24" s="71"/>
+      <c r="N24" s="69"/>
       <c r="O24" s="49"/>
       <c r="P24" s="49"/>
       <c r="Q24" s="49"/>
@@ -47788,7 +47696,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>0.5182293832486774</v>
       </c>
-      <c r="N25" s="71"/>
+      <c r="N25" s="69"/>
       <c r="O25" s="49"/>
       <c r="P25" s="49"/>
       <c r="Q25" s="49"/>
@@ -47869,7 +47777,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>0.76241974440807703</v>
       </c>
-      <c r="N26" s="71"/>
+      <c r="N26" s="69"/>
       <c r="O26" s="49"/>
       <c r="P26" s="49"/>
       <c r="Q26" s="49"/>
@@ -47950,7 +47858,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>0.49193820650586001</v>
       </c>
-      <c r="N27" s="71"/>
+      <c r="N27" s="69"/>
       <c r="O27" s="49"/>
       <c r="P27" s="49"/>
       <c r="Q27" s="49"/>
@@ -48031,7 +47939,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>0.66272230548290201</v>
       </c>
-      <c r="N28" s="71"/>
+      <c r="N28" s="69"/>
       <c r="O28" s="49"/>
       <c r="P28" s="49"/>
       <c r="Q28" s="49"/>
@@ -48112,7 +48020,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>0</v>
       </c>
-      <c r="N29" s="71"/>
+      <c r="N29" s="69"/>
       <c r="O29" s="49"/>
       <c r="P29" s="49"/>
       <c r="Q29" s="49"/>
@@ -48193,7 +48101,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>0.70716539743670304</v>
       </c>
-      <c r="N30" s="71"/>
+      <c r="N30" s="69"/>
       <c r="O30" s="49"/>
       <c r="P30" s="49"/>
       <c r="Q30" s="49"/>
@@ -48274,7 +48182,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>0.59151203107801198</v>
       </c>
-      <c r="N31" s="71"/>
+      <c r="N31" s="69"/>
       <c r="O31" s="49"/>
       <c r="P31" s="49"/>
       <c r="Q31" s="49"/>
@@ -48355,7 +48263,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>0.67877856327779496</v>
       </c>
-      <c r="N32" s="71"/>
+      <c r="N32" s="69"/>
       <c r="O32" s="49"/>
       <c r="P32" s="49"/>
       <c r="Q32" s="49"/>
@@ -48445,8 +48353,8 @@
     </row>
     <row r="44" spans="3:43" ht="18">
       <c r="C44" s="45"/>
-      <c r="F44" s="57"/>
-      <c r="G44" s="58"/>
+      <c r="F44" s="73"/>
+      <c r="G44" s="74"/>
       <c r="W44" s="42"/>
       <c r="Y44" s="42"/>
       <c r="AI44" s="42"/>
@@ -48572,10 +48480,10 @@
   </mergeCells>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="D1:M1">
-    <cfRule type="expression" dxfId="35" priority="1">
+    <cfRule type="expression" dxfId="25" priority="1">
       <formula>$C1&lt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="2">
+    <cfRule type="expression" dxfId="24" priority="2">
       <formula>$C1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -48587,8 +48495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5B2C84B-5A37-F347-9578-11043297CF45}">
   <dimension ref="A1:CH64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -48610,66 +48518,66 @@
       <c r="C1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="70" t="s">
         <v>229</v>
       </c>
-      <c r="E1" s="72" t="s">
+      <c r="E1" s="70" t="s">
         <v>233</v>
       </c>
-      <c r="F1" s="72" t="s">
+      <c r="F1" s="70" t="s">
         <v>254</v>
       </c>
-      <c r="G1" s="72" t="s">
+      <c r="G1" s="70" t="s">
         <v>225</v>
       </c>
-      <c r="H1" s="72" t="s">
+      <c r="H1" s="70" t="s">
         <v>237</v>
       </c>
-      <c r="I1" s="72" t="s">
+      <c r="I1" s="70" t="s">
         <v>242</v>
       </c>
-      <c r="J1" s="72" t="s">
+      <c r="J1" s="70" t="s">
         <v>236</v>
       </c>
-      <c r="K1" s="72" t="s">
+      <c r="K1" s="70" t="s">
         <v>241</v>
       </c>
-      <c r="L1" s="72" t="s">
+      <c r="L1" s="70" t="s">
         <v>228</v>
       </c>
-      <c r="M1" s="73" t="s">
+      <c r="M1" s="71" t="s">
         <v>226</v>
       </c>
-      <c r="N1" s="70"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
-      <c r="W1" s="69"/>
-      <c r="X1" s="69"/>
-      <c r="Y1" s="69"/>
-      <c r="Z1" s="69"/>
-      <c r="AA1" s="69"/>
-      <c r="AB1" s="69"/>
-      <c r="AC1" s="69"/>
-      <c r="AD1" s="69"/>
-      <c r="AE1" s="69"/>
-      <c r="AF1" s="69"/>
-      <c r="AG1" s="66"/>
-      <c r="AH1" s="66"/>
-      <c r="AI1" s="66"/>
-      <c r="AJ1" s="66"/>
-      <c r="AK1" s="66"/>
-      <c r="AL1" s="66"/>
-      <c r="AM1" s="66"/>
-      <c r="AN1" s="66"/>
-      <c r="AO1" s="66"/>
-      <c r="AP1" s="66"/>
-      <c r="AQ1" s="66"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
+      <c r="W1" s="67"/>
+      <c r="X1" s="67"/>
+      <c r="Y1" s="67"/>
+      <c r="Z1" s="67"/>
+      <c r="AA1" s="67"/>
+      <c r="AB1" s="67"/>
+      <c r="AC1" s="67"/>
+      <c r="AD1" s="67"/>
+      <c r="AE1" s="67"/>
+      <c r="AF1" s="67"/>
+      <c r="AG1" s="64"/>
+      <c r="AH1" s="64"/>
+      <c r="AI1" s="64"/>
+      <c r="AJ1" s="64"/>
+      <c r="AK1" s="64"/>
+      <c r="AL1" s="64"/>
+      <c r="AM1" s="64"/>
+      <c r="AN1" s="64"/>
+      <c r="AO1" s="64"/>
+      <c r="AP1" s="64"/>
+      <c r="AQ1" s="64"/>
     </row>
     <row r="2" spans="1:86">
       <c r="A2" s="38">
@@ -48721,7 +48629,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>3</v>
       </c>
-      <c r="N2" s="71"/>
+      <c r="N2" s="69"/>
       <c r="O2" s="49"/>
       <c r="P2" s="49"/>
       <c r="Q2" s="49"/>
@@ -48802,7 +48710,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>4</v>
       </c>
-      <c r="N3" s="71"/>
+      <c r="N3" s="69"/>
       <c r="O3" s="49"/>
       <c r="P3" s="49"/>
       <c r="Q3" s="49"/>
@@ -48883,7 +48791,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>7</v>
       </c>
-      <c r="N4" s="71"/>
+      <c r="N4" s="69"/>
       <c r="O4" s="49"/>
       <c r="P4" s="49"/>
       <c r="Q4" s="49"/>
@@ -48964,7 +48872,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>3</v>
       </c>
-      <c r="N5" s="71"/>
+      <c r="N5" s="69"/>
       <c r="O5" s="49"/>
       <c r="P5" s="49"/>
       <c r="Q5" s="49"/>
@@ -49045,7 +48953,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>3</v>
       </c>
-      <c r="N6" s="71"/>
+      <c r="N6" s="69"/>
       <c r="O6" s="49"/>
       <c r="P6" s="49"/>
       <c r="Q6" s="49"/>
@@ -49126,7 +49034,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>17</v>
       </c>
-      <c r="N7" s="71"/>
+      <c r="N7" s="69"/>
       <c r="O7" s="49"/>
       <c r="P7" s="49"/>
       <c r="Q7" s="49"/>
@@ -49156,7 +49064,7 @@
       <c r="AO7" s="49"/>
       <c r="AP7" s="49"/>
       <c r="AQ7" s="49"/>
-      <c r="AR7" s="65"/>
+      <c r="AR7" s="63"/>
       <c r="AS7" s="26"/>
       <c r="AT7" s="45"/>
       <c r="AU7" s="49"/>
@@ -49250,7 +49158,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>3</v>
       </c>
-      <c r="N8" s="71"/>
+      <c r="N8" s="69"/>
       <c r="O8" s="49"/>
       <c r="P8" s="49"/>
       <c r="Q8" s="49"/>
@@ -49331,7 +49239,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>49</v>
       </c>
-      <c r="N9" s="71"/>
+      <c r="N9" s="69"/>
       <c r="O9" s="49"/>
       <c r="P9" s="49"/>
       <c r="Q9" s="49"/>
@@ -49412,7 +49320,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>3</v>
       </c>
-      <c r="N10" s="71"/>
+      <c r="N10" s="69"/>
       <c r="O10" s="49"/>
       <c r="P10" s="49"/>
       <c r="Q10" s="49"/>
@@ -49493,7 +49401,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>7</v>
       </c>
-      <c r="N11" s="71"/>
+      <c r="N11" s="69"/>
       <c r="O11" s="49"/>
       <c r="P11" s="49"/>
       <c r="Q11" s="49"/>
@@ -49574,7 +49482,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>16</v>
       </c>
-      <c r="N12" s="71"/>
+      <c r="N12" s="69"/>
       <c r="O12" s="49"/>
       <c r="P12" s="49"/>
       <c r="Q12" s="49"/>
@@ -49655,7 +49563,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>12</v>
       </c>
-      <c r="N13" s="71"/>
+      <c r="N13" s="69"/>
       <c r="O13" s="49"/>
       <c r="P13" s="49"/>
       <c r="Q13" s="49"/>
@@ -49736,7 +49644,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>22</v>
       </c>
-      <c r="N14" s="71"/>
+      <c r="N14" s="69"/>
       <c r="O14" s="49"/>
       <c r="P14" s="49"/>
       <c r="Q14" s="49"/>
@@ -49817,7 +49725,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>3</v>
       </c>
-      <c r="N15" s="71"/>
+      <c r="N15" s="69"/>
       <c r="O15" s="49"/>
       <c r="P15" s="49"/>
       <c r="Q15" s="49"/>
@@ -49898,7 +49806,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>11</v>
       </c>
-      <c r="N16" s="71"/>
+      <c r="N16" s="69"/>
       <c r="O16" s="49"/>
       <c r="P16" s="49"/>
       <c r="Q16" s="49"/>
@@ -49979,7 +49887,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>6</v>
       </c>
-      <c r="N17" s="71"/>
+      <c r="N17" s="69"/>
       <c r="O17" s="49"/>
       <c r="P17" s="49"/>
       <c r="Q17" s="49"/>
@@ -50060,7 +49968,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>31</v>
       </c>
-      <c r="N18" s="71"/>
+      <c r="N18" s="69"/>
       <c r="O18" s="49"/>
       <c r="P18" s="49"/>
       <c r="Q18" s="49"/>
@@ -50141,7 +50049,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>129</v>
       </c>
-      <c r="N19" s="71"/>
+      <c r="N19" s="69"/>
       <c r="O19" s="49"/>
       <c r="P19" s="49"/>
       <c r="Q19" s="49"/>
@@ -50222,7 +50130,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>3</v>
       </c>
-      <c r="N20" s="71"/>
+      <c r="N20" s="69"/>
       <c r="O20" s="49"/>
       <c r="P20" s="49"/>
       <c r="Q20" s="49"/>
@@ -50303,7 +50211,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>11</v>
       </c>
-      <c r="N21" s="71"/>
+      <c r="N21" s="69"/>
       <c r="O21" s="49"/>
       <c r="P21" s="49"/>
       <c r="Q21" s="49"/>
@@ -50384,7 +50292,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>3</v>
       </c>
-      <c r="N22" s="71"/>
+      <c r="N22" s="69"/>
       <c r="O22" s="49"/>
       <c r="P22" s="49"/>
       <c r="Q22" s="49"/>
@@ -50465,7 +50373,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>3</v>
       </c>
-      <c r="N23" s="71"/>
+      <c r="N23" s="69"/>
       <c r="O23" s="49"/>
       <c r="P23" s="49"/>
       <c r="Q23" s="49"/>
@@ -50546,7 +50454,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>11</v>
       </c>
-      <c r="N24" s="71"/>
+      <c r="N24" s="69"/>
       <c r="O24" s="49"/>
       <c r="P24" s="49"/>
       <c r="Q24" s="49"/>
@@ -50627,7 +50535,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>10</v>
       </c>
-      <c r="N25" s="71"/>
+      <c r="N25" s="69"/>
       <c r="O25" s="49"/>
       <c r="P25" s="49"/>
       <c r="Q25" s="49"/>
@@ -50708,7 +50616,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>11</v>
       </c>
-      <c r="N26" s="71"/>
+      <c r="N26" s="69"/>
       <c r="O26" s="49"/>
       <c r="P26" s="49"/>
       <c r="Q26" s="49"/>
@@ -50789,7 +50697,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>3</v>
       </c>
-      <c r="N27" s="71"/>
+      <c r="N27" s="69"/>
       <c r="O27" s="49"/>
       <c r="P27" s="49"/>
       <c r="Q27" s="49"/>
@@ -50870,7 +50778,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>16</v>
       </c>
-      <c r="N28" s="71"/>
+      <c r="N28" s="69"/>
       <c r="O28" s="49"/>
       <c r="P28" s="49"/>
       <c r="Q28" s="49"/>
@@ -50951,7 +50859,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>21</v>
       </c>
-      <c r="N29" s="71"/>
+      <c r="N29" s="69"/>
       <c r="O29" s="49"/>
       <c r="P29" s="49"/>
       <c r="Q29" s="49"/>
@@ -51032,7 +50940,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>3</v>
       </c>
-      <c r="N30" s="71"/>
+      <c r="N30" s="69"/>
       <c r="O30" s="49"/>
       <c r="P30" s="49"/>
       <c r="Q30" s="49"/>
@@ -51113,7 +51021,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>3</v>
       </c>
-      <c r="N31" s="71"/>
+      <c r="N31" s="69"/>
       <c r="O31" s="49"/>
       <c r="P31" s="49"/>
       <c r="Q31" s="49"/>
@@ -51194,7 +51102,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>15</v>
       </c>
-      <c r="N32" s="71"/>
+      <c r="N32" s="69"/>
       <c r="O32" s="49"/>
       <c r="P32" s="49"/>
       <c r="Q32" s="49"/>
@@ -51256,16 +51164,16 @@
     </row>
     <row r="40" spans="3:43" ht="18">
       <c r="C40" s="45"/>
-      <c r="D40" s="69"/>
-      <c r="E40" s="69"/>
-      <c r="F40" s="69"/>
-      <c r="G40" s="69"/>
-      <c r="H40" s="69"/>
-      <c r="I40" s="69"/>
-      <c r="J40" s="69"/>
-      <c r="K40" s="69"/>
-      <c r="L40" s="69"/>
-      <c r="M40" s="69"/>
+      <c r="D40" s="67"/>
+      <c r="E40" s="67"/>
+      <c r="F40" s="67"/>
+      <c r="G40" s="67"/>
+      <c r="H40" s="67"/>
+      <c r="I40" s="67"/>
+      <c r="J40" s="67"/>
+      <c r="K40" s="67"/>
+      <c r="L40" s="67"/>
+      <c r="M40" s="67"/>
       <c r="W40" s="42"/>
       <c r="Y40" s="42"/>
       <c r="AI40" s="42"/>
@@ -51294,8 +51202,8 @@
     </row>
     <row r="44" spans="3:43" ht="18">
       <c r="C44" s="45"/>
-      <c r="F44" s="57"/>
-      <c r="G44" s="58"/>
+      <c r="F44" s="73"/>
+      <c r="G44" s="74"/>
       <c r="W44" s="42"/>
       <c r="Y44" s="42"/>
       <c r="AI44" s="42"/>
@@ -51421,18 +51329,18 @@
   </mergeCells>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="D40:M40">
-    <cfRule type="expression" dxfId="33" priority="3">
+    <cfRule type="expression" dxfId="23" priority="3">
       <formula>$F40&lt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="4">
+    <cfRule type="expression" dxfId="22" priority="4">
       <formula>$F40&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:M1">
-    <cfRule type="expression" dxfId="31" priority="1">
+    <cfRule type="expression" dxfId="21" priority="1">
       <formula>$F1&lt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="2">
+    <cfRule type="expression" dxfId="20" priority="2">
       <formula>$F1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -51467,66 +51375,66 @@
       <c r="C1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="70" t="s">
         <v>242</v>
       </c>
-      <c r="E1" s="72" t="s">
+      <c r="E1" s="70" t="s">
         <v>264</v>
       </c>
-      <c r="F1" s="72" t="s">
+      <c r="F1" s="70" t="s">
         <v>247</v>
       </c>
-      <c r="G1" s="72" t="s">
+      <c r="G1" s="70" t="s">
         <v>237</v>
       </c>
-      <c r="H1" s="72" t="s">
+      <c r="H1" s="70" t="s">
         <v>227</v>
       </c>
-      <c r="I1" s="72" t="s">
+      <c r="I1" s="70" t="s">
         <v>229</v>
       </c>
-      <c r="J1" s="72" t="s">
+      <c r="J1" s="70" t="s">
         <v>252</v>
       </c>
-      <c r="K1" s="72" t="s">
+      <c r="K1" s="70" t="s">
         <v>249</v>
       </c>
-      <c r="L1" s="72" t="s">
+      <c r="L1" s="70" t="s">
         <v>246</v>
       </c>
-      <c r="M1" s="73" t="s">
+      <c r="M1" s="71" t="s">
         <v>233</v>
       </c>
-      <c r="N1" s="70"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
-      <c r="W1" s="69"/>
-      <c r="X1" s="69"/>
-      <c r="Y1" s="69"/>
-      <c r="Z1" s="69"/>
-      <c r="AA1" s="69"/>
-      <c r="AB1" s="69"/>
-      <c r="AC1" s="69"/>
-      <c r="AD1" s="69"/>
-      <c r="AE1" s="69"/>
-      <c r="AF1" s="69"/>
-      <c r="AG1" s="66"/>
-      <c r="AH1" s="66"/>
-      <c r="AI1" s="66"/>
-      <c r="AJ1" s="66"/>
-      <c r="AK1" s="66"/>
-      <c r="AL1" s="66"/>
-      <c r="AM1" s="66"/>
-      <c r="AN1" s="66"/>
-      <c r="AO1" s="66"/>
-      <c r="AP1" s="66"/>
-      <c r="AQ1" s="66"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
+      <c r="W1" s="67"/>
+      <c r="X1" s="67"/>
+      <c r="Y1" s="67"/>
+      <c r="Z1" s="67"/>
+      <c r="AA1" s="67"/>
+      <c r="AB1" s="67"/>
+      <c r="AC1" s="67"/>
+      <c r="AD1" s="67"/>
+      <c r="AE1" s="67"/>
+      <c r="AF1" s="67"/>
+      <c r="AG1" s="64"/>
+      <c r="AH1" s="64"/>
+      <c r="AI1" s="64"/>
+      <c r="AJ1" s="64"/>
+      <c r="AK1" s="64"/>
+      <c r="AL1" s="64"/>
+      <c r="AM1" s="64"/>
+      <c r="AN1" s="64"/>
+      <c r="AO1" s="64"/>
+      <c r="AP1" s="64"/>
+      <c r="AQ1" s="64"/>
     </row>
     <row r="2" spans="1:86">
       <c r="A2" s="38">
@@ -51578,7 +51486,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>33</v>
       </c>
-      <c r="N2" s="71"/>
+      <c r="N2" s="69"/>
       <c r="O2" s="49"/>
       <c r="P2" s="49"/>
       <c r="Q2" s="49"/>
@@ -51659,7 +51567,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>38</v>
       </c>
-      <c r="N3" s="71"/>
+      <c r="N3" s="69"/>
       <c r="O3" s="49"/>
       <c r="P3" s="49"/>
       <c r="Q3" s="49"/>
@@ -51740,7 +51648,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>45</v>
       </c>
-      <c r="N4" s="71"/>
+      <c r="N4" s="69"/>
       <c r="O4" s="49"/>
       <c r="P4" s="49"/>
       <c r="Q4" s="49"/>
@@ -51821,7 +51729,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>39</v>
       </c>
-      <c r="N5" s="71"/>
+      <c r="N5" s="69"/>
       <c r="O5" s="49"/>
       <c r="P5" s="49"/>
       <c r="Q5" s="49"/>
@@ -51902,7 +51810,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>28</v>
       </c>
-      <c r="N6" s="71"/>
+      <c r="N6" s="69"/>
       <c r="O6" s="49"/>
       <c r="P6" s="49"/>
       <c r="Q6" s="49"/>
@@ -51983,7 +51891,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>31</v>
       </c>
-      <c r="N7" s="71"/>
+      <c r="N7" s="69"/>
       <c r="O7" s="49"/>
       <c r="P7" s="49"/>
       <c r="Q7" s="49"/>
@@ -52013,7 +51921,7 @@
       <c r="AO7" s="49"/>
       <c r="AP7" s="49"/>
       <c r="AQ7" s="49"/>
-      <c r="AR7" s="65"/>
+      <c r="AR7" s="63"/>
       <c r="AS7" s="26"/>
       <c r="AT7" s="45"/>
       <c r="AU7" s="49"/>
@@ -52107,7 +52015,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>37</v>
       </c>
-      <c r="N8" s="71"/>
+      <c r="N8" s="69"/>
       <c r="O8" s="49"/>
       <c r="P8" s="49"/>
       <c r="Q8" s="49"/>
@@ -52188,7 +52096,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>49</v>
       </c>
-      <c r="N9" s="71"/>
+      <c r="N9" s="69"/>
       <c r="O9" s="49"/>
       <c r="P9" s="49"/>
       <c r="Q9" s="49"/>
@@ -52269,7 +52177,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>28</v>
       </c>
-      <c r="N10" s="71"/>
+      <c r="N10" s="69"/>
       <c r="O10" s="49"/>
       <c r="P10" s="49"/>
       <c r="Q10" s="49"/>
@@ -52350,7 +52258,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>31</v>
       </c>
-      <c r="N11" s="71"/>
+      <c r="N11" s="69"/>
       <c r="O11" s="49"/>
       <c r="P11" s="49"/>
       <c r="Q11" s="49"/>
@@ -52431,7 +52339,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>37</v>
       </c>
-      <c r="N12" s="71"/>
+      <c r="N12" s="69"/>
       <c r="O12" s="49"/>
       <c r="P12" s="49"/>
       <c r="Q12" s="49"/>
@@ -52512,7 +52420,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>38</v>
       </c>
-      <c r="N13" s="71"/>
+      <c r="N13" s="69"/>
       <c r="O13" s="49"/>
       <c r="P13" s="49"/>
       <c r="Q13" s="49"/>
@@ -52593,7 +52501,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>41</v>
       </c>
-      <c r="N14" s="71"/>
+      <c r="N14" s="69"/>
       <c r="O14" s="49"/>
       <c r="P14" s="49"/>
       <c r="Q14" s="49"/>
@@ -52674,7 +52582,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>41</v>
       </c>
-      <c r="N15" s="71"/>
+      <c r="N15" s="69"/>
       <c r="O15" s="49"/>
       <c r="P15" s="49"/>
       <c r="Q15" s="49"/>
@@ -52755,7 +52663,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>27</v>
       </c>
-      <c r="N16" s="71"/>
+      <c r="N16" s="69"/>
       <c r="O16" s="49"/>
       <c r="P16" s="49"/>
       <c r="Q16" s="49"/>
@@ -52836,7 +52744,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>53</v>
       </c>
-      <c r="N17" s="71"/>
+      <c r="N17" s="69"/>
       <c r="O17" s="49"/>
       <c r="P17" s="49"/>
       <c r="Q17" s="49"/>
@@ -52917,7 +52825,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>42</v>
       </c>
-      <c r="N18" s="71"/>
+      <c r="N18" s="69"/>
       <c r="O18" s="49"/>
       <c r="P18" s="49"/>
       <c r="Q18" s="49"/>
@@ -52998,7 +52906,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>55</v>
       </c>
-      <c r="N19" s="71"/>
+      <c r="N19" s="69"/>
       <c r="O19" s="49"/>
       <c r="P19" s="49"/>
       <c r="Q19" s="49"/>
@@ -53079,7 +52987,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>26</v>
       </c>
-      <c r="N20" s="71"/>
+      <c r="N20" s="69"/>
       <c r="O20" s="49"/>
       <c r="P20" s="49"/>
       <c r="Q20" s="49"/>
@@ -53160,7 +53068,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>39</v>
       </c>
-      <c r="N21" s="71"/>
+      <c r="N21" s="69"/>
       <c r="O21" s="49"/>
       <c r="P21" s="49"/>
       <c r="Q21" s="49"/>
@@ -53241,7 +53149,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>44</v>
       </c>
-      <c r="N22" s="71"/>
+      <c r="N22" s="69"/>
       <c r="O22" s="49"/>
       <c r="P22" s="49"/>
       <c r="Q22" s="49"/>
@@ -53322,7 +53230,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>28</v>
       </c>
-      <c r="N23" s="71"/>
+      <c r="N23" s="69"/>
       <c r="O23" s="49"/>
       <c r="P23" s="49"/>
       <c r="Q23" s="49"/>
@@ -53403,7 +53311,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>36</v>
       </c>
-      <c r="N24" s="71"/>
+      <c r="N24" s="69"/>
       <c r="O24" s="49"/>
       <c r="P24" s="49"/>
       <c r="Q24" s="49"/>
@@ -53484,7 +53392,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>40</v>
       </c>
-      <c r="N25" s="71"/>
+      <c r="N25" s="69"/>
       <c r="O25" s="49"/>
       <c r="P25" s="49"/>
       <c r="Q25" s="49"/>
@@ -53565,7 +53473,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>30</v>
       </c>
-      <c r="N26" s="71"/>
+      <c r="N26" s="69"/>
       <c r="O26" s="49"/>
       <c r="P26" s="49"/>
       <c r="Q26" s="49"/>
@@ -53646,7 +53554,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>22</v>
       </c>
-      <c r="N27" s="71"/>
+      <c r="N27" s="69"/>
       <c r="O27" s="49"/>
       <c r="P27" s="49"/>
       <c r="Q27" s="49"/>
@@ -53727,7 +53635,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>54</v>
       </c>
-      <c r="N28" s="71"/>
+      <c r="N28" s="69"/>
       <c r="O28" s="49"/>
       <c r="P28" s="49"/>
       <c r="Q28" s="49"/>
@@ -53808,7 +53716,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>47</v>
       </c>
-      <c r="N29" s="71"/>
+      <c r="N29" s="69"/>
       <c r="O29" s="49"/>
       <c r="P29" s="49"/>
       <c r="Q29" s="49"/>
@@ -53889,7 +53797,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>42</v>
       </c>
-      <c r="N30" s="71"/>
+      <c r="N30" s="69"/>
       <c r="O30" s="49"/>
       <c r="P30" s="49"/>
       <c r="Q30" s="49"/>
@@ -53970,7 +53878,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>35</v>
       </c>
-      <c r="N31" s="71"/>
+      <c r="N31" s="69"/>
       <c r="O31" s="49"/>
       <c r="P31" s="49"/>
       <c r="Q31" s="49"/>
@@ -54051,7 +53959,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>42</v>
       </c>
-      <c r="N32" s="71"/>
+      <c r="N32" s="69"/>
       <c r="O32" s="49"/>
       <c r="P32" s="49"/>
       <c r="Q32" s="49"/>
@@ -54106,16 +54014,16 @@
     </row>
     <row r="39" spans="3:43" ht="18">
       <c r="C39" s="45"/>
-      <c r="D39" s="69"/>
-      <c r="E39" s="69"/>
-      <c r="F39" s="69"/>
-      <c r="G39" s="69"/>
-      <c r="H39" s="69"/>
-      <c r="I39" s="69"/>
-      <c r="J39" s="69"/>
-      <c r="K39" s="69"/>
-      <c r="L39" s="69"/>
-      <c r="M39" s="69"/>
+      <c r="D39" s="67"/>
+      <c r="E39" s="67"/>
+      <c r="F39" s="67"/>
+      <c r="G39" s="67"/>
+      <c r="H39" s="67"/>
+      <c r="I39" s="67"/>
+      <c r="J39" s="67"/>
+      <c r="K39" s="67"/>
+      <c r="L39" s="67"/>
+      <c r="M39" s="67"/>
       <c r="W39" s="42"/>
       <c r="Y39" s="42"/>
       <c r="AI39" s="42"/>
@@ -54151,8 +54059,8 @@
     </row>
     <row r="44" spans="3:43" ht="18">
       <c r="C44" s="45"/>
-      <c r="F44" s="57"/>
-      <c r="G44" s="58"/>
+      <c r="F44" s="73"/>
+      <c r="G44" s="74"/>
       <c r="W44" s="42"/>
       <c r="Y44" s="42"/>
       <c r="AI44" s="42"/>
@@ -54278,18 +54186,18 @@
   </mergeCells>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="D39:M39">
-    <cfRule type="expression" dxfId="27" priority="3">
+    <cfRule type="expression" dxfId="19" priority="3">
       <formula>$I39&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="4">
+    <cfRule type="expression" dxfId="18" priority="4">
       <formula>$I39&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:M1">
-    <cfRule type="expression" dxfId="25" priority="1">
+    <cfRule type="expression" dxfId="17" priority="1">
       <formula>$I1&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="2">
+    <cfRule type="expression" dxfId="16" priority="2">
       <formula>$I1&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -54301,8 +54209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0353D90A-B8AE-AF49-B531-82221D236AAD}">
   <dimension ref="A1:CH64"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M39" sqref="D39:M39"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -54324,66 +54232,66 @@
       <c r="C1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="70" t="s">
         <v>247</v>
       </c>
-      <c r="E1" s="72" t="s">
+      <c r="E1" s="70" t="s">
         <v>246</v>
       </c>
-      <c r="F1" s="72" t="s">
+      <c r="F1" s="70" t="s">
         <v>225</v>
       </c>
-      <c r="G1" s="72" t="s">
+      <c r="G1" s="70" t="s">
         <v>234</v>
       </c>
-      <c r="H1" s="72" t="s">
+      <c r="H1" s="70" t="s">
         <v>253</v>
       </c>
-      <c r="I1" s="72" t="s">
+      <c r="I1" s="70" t="s">
         <v>237</v>
       </c>
-      <c r="J1" s="72" t="s">
+      <c r="J1" s="70" t="s">
         <v>261</v>
       </c>
-      <c r="K1" s="72" t="s">
+      <c r="K1" s="70" t="s">
         <v>263</v>
       </c>
-      <c r="L1" s="72" t="s">
+      <c r="L1" s="70" t="s">
         <v>232</v>
       </c>
-      <c r="M1" s="73" t="s">
+      <c r="M1" s="71" t="s">
         <v>229</v>
       </c>
-      <c r="N1" s="70"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
-      <c r="W1" s="69"/>
-      <c r="X1" s="69"/>
-      <c r="Y1" s="69"/>
-      <c r="Z1" s="69"/>
-      <c r="AA1" s="69"/>
-      <c r="AB1" s="69"/>
-      <c r="AC1" s="69"/>
-      <c r="AD1" s="69"/>
-      <c r="AE1" s="69"/>
-      <c r="AF1" s="69"/>
-      <c r="AG1" s="66"/>
-      <c r="AH1" s="66"/>
-      <c r="AI1" s="66"/>
-      <c r="AJ1" s="66"/>
-      <c r="AK1" s="66"/>
-      <c r="AL1" s="66"/>
-      <c r="AM1" s="66"/>
-      <c r="AN1" s="66"/>
-      <c r="AO1" s="66"/>
-      <c r="AP1" s="66"/>
-      <c r="AQ1" s="66"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
+      <c r="W1" s="67"/>
+      <c r="X1" s="67"/>
+      <c r="Y1" s="67"/>
+      <c r="Z1" s="67"/>
+      <c r="AA1" s="67"/>
+      <c r="AB1" s="67"/>
+      <c r="AC1" s="67"/>
+      <c r="AD1" s="67"/>
+      <c r="AE1" s="67"/>
+      <c r="AF1" s="67"/>
+      <c r="AG1" s="64"/>
+      <c r="AH1" s="64"/>
+      <c r="AI1" s="64"/>
+      <c r="AJ1" s="64"/>
+      <c r="AK1" s="64"/>
+      <c r="AL1" s="64"/>
+      <c r="AM1" s="64"/>
+      <c r="AN1" s="64"/>
+      <c r="AO1" s="64"/>
+      <c r="AP1" s="64"/>
+      <c r="AQ1" s="64"/>
     </row>
     <row r="2" spans="1:86">
       <c r="A2" s="38">
@@ -54435,7 +54343,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>55</v>
       </c>
-      <c r="N2" s="71"/>
+      <c r="N2" s="69"/>
       <c r="O2" s="49"/>
       <c r="P2" s="49"/>
       <c r="Q2" s="49"/>
@@ -54516,7 +54424,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>50</v>
       </c>
-      <c r="N3" s="71"/>
+      <c r="N3" s="69"/>
       <c r="O3" s="49"/>
       <c r="P3" s="49"/>
       <c r="Q3" s="49"/>
@@ -54597,7 +54505,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>46</v>
       </c>
-      <c r="N4" s="71"/>
+      <c r="N4" s="69"/>
       <c r="O4" s="49"/>
       <c r="P4" s="49"/>
       <c r="Q4" s="49"/>
@@ -54678,7 +54586,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>37</v>
       </c>
-      <c r="N5" s="71"/>
+      <c r="N5" s="69"/>
       <c r="O5" s="49"/>
       <c r="P5" s="49"/>
       <c r="Q5" s="49"/>
@@ -54759,7 +54667,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>31</v>
       </c>
-      <c r="N6" s="71"/>
+      <c r="N6" s="69"/>
       <c r="O6" s="49"/>
       <c r="P6" s="49"/>
       <c r="Q6" s="49"/>
@@ -54840,7 +54748,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>44</v>
       </c>
-      <c r="N7" s="71"/>
+      <c r="N7" s="69"/>
       <c r="O7" s="49"/>
       <c r="P7" s="49"/>
       <c r="Q7" s="49"/>
@@ -54870,7 +54778,7 @@
       <c r="AO7" s="49"/>
       <c r="AP7" s="49"/>
       <c r="AQ7" s="49"/>
-      <c r="AR7" s="65"/>
+      <c r="AR7" s="63"/>
       <c r="AS7" s="26"/>
       <c r="AT7" s="45"/>
       <c r="AU7" s="49"/>
@@ -54964,7 +54872,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>39</v>
       </c>
-      <c r="N8" s="71"/>
+      <c r="N8" s="69"/>
       <c r="O8" s="49"/>
       <c r="P8" s="49"/>
       <c r="Q8" s="49"/>
@@ -55045,7 +54953,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>58</v>
       </c>
-      <c r="N9" s="71"/>
+      <c r="N9" s="69"/>
       <c r="O9" s="49"/>
       <c r="P9" s="49"/>
       <c r="Q9" s="49"/>
@@ -55126,7 +55034,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>30</v>
       </c>
-      <c r="N10" s="71"/>
+      <c r="N10" s="69"/>
       <c r="O10" s="49"/>
       <c r="P10" s="49"/>
       <c r="Q10" s="49"/>
@@ -55207,7 +55115,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>37</v>
       </c>
-      <c r="N11" s="71"/>
+      <c r="N11" s="69"/>
       <c r="O11" s="49"/>
       <c r="P11" s="49"/>
       <c r="Q11" s="49"/>
@@ -55288,7 +55196,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>49</v>
       </c>
-      <c r="N12" s="71"/>
+      <c r="N12" s="69"/>
       <c r="O12" s="49"/>
       <c r="P12" s="49"/>
       <c r="Q12" s="49"/>
@@ -55369,7 +55277,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>49</v>
       </c>
-      <c r="N13" s="71"/>
+      <c r="N13" s="69"/>
       <c r="O13" s="49"/>
       <c r="P13" s="49"/>
       <c r="Q13" s="49"/>
@@ -55450,7 +55358,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>48</v>
       </c>
-      <c r="N14" s="71"/>
+      <c r="N14" s="69"/>
       <c r="O14" s="49"/>
       <c r="P14" s="49"/>
       <c r="Q14" s="49"/>
@@ -55531,7 +55439,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>52</v>
       </c>
-      <c r="N15" s="71"/>
+      <c r="N15" s="69"/>
       <c r="O15" s="49"/>
       <c r="P15" s="49"/>
       <c r="Q15" s="49"/>
@@ -55612,7 +55520,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>30</v>
       </c>
-      <c r="N16" s="71"/>
+      <c r="N16" s="69"/>
       <c r="O16" s="49"/>
       <c r="P16" s="49"/>
       <c r="Q16" s="49"/>
@@ -55693,7 +55601,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>58</v>
       </c>
-      <c r="N17" s="71"/>
+      <c r="N17" s="69"/>
       <c r="O17" s="49"/>
       <c r="P17" s="49"/>
       <c r="Q17" s="49"/>
@@ -55774,7 +55682,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>54</v>
       </c>
-      <c r="N18" s="71"/>
+      <c r="N18" s="69"/>
       <c r="O18" s="49"/>
       <c r="P18" s="49"/>
       <c r="Q18" s="49"/>
@@ -55855,7 +55763,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>60</v>
       </c>
-      <c r="N19" s="71"/>
+      <c r="N19" s="69"/>
       <c r="O19" s="49"/>
       <c r="P19" s="49"/>
       <c r="Q19" s="49"/>
@@ -55936,7 +55844,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>32</v>
       </c>
-      <c r="N20" s="71"/>
+      <c r="N20" s="69"/>
       <c r="O20" s="49"/>
       <c r="P20" s="49"/>
       <c r="Q20" s="49"/>
@@ -56017,7 +55925,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>43</v>
       </c>
-      <c r="N21" s="71"/>
+      <c r="N21" s="69"/>
       <c r="O21" s="49"/>
       <c r="P21" s="49"/>
       <c r="Q21" s="49"/>
@@ -56098,7 +56006,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>55</v>
       </c>
-      <c r="N22" s="71"/>
+      <c r="N22" s="69"/>
       <c r="O22" s="49"/>
       <c r="P22" s="49"/>
       <c r="Q22" s="49"/>
@@ -56179,7 +56087,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>28</v>
       </c>
-      <c r="N23" s="71"/>
+      <c r="N23" s="69"/>
       <c r="O23" s="49"/>
       <c r="P23" s="49"/>
       <c r="Q23" s="49"/>
@@ -56260,7 +56168,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>53</v>
       </c>
-      <c r="N24" s="71"/>
+      <c r="N24" s="69"/>
       <c r="O24" s="49"/>
       <c r="P24" s="49"/>
       <c r="Q24" s="49"/>
@@ -56341,7 +56249,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>42</v>
       </c>
-      <c r="N25" s="71"/>
+      <c r="N25" s="69"/>
       <c r="O25" s="49"/>
       <c r="P25" s="49"/>
       <c r="Q25" s="49"/>
@@ -56422,7 +56330,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>39</v>
       </c>
-      <c r="N26" s="71"/>
+      <c r="N26" s="69"/>
       <c r="O26" s="49"/>
       <c r="P26" s="49"/>
       <c r="Q26" s="49"/>
@@ -56503,7 +56411,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>24</v>
       </c>
-      <c r="N27" s="71"/>
+      <c r="N27" s="69"/>
       <c r="O27" s="49"/>
       <c r="P27" s="49"/>
       <c r="Q27" s="49"/>
@@ -56584,7 +56492,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>56</v>
       </c>
-      <c r="N28" s="71"/>
+      <c r="N28" s="69"/>
       <c r="O28" s="49"/>
       <c r="P28" s="49"/>
       <c r="Q28" s="49"/>
@@ -56665,7 +56573,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>56</v>
       </c>
-      <c r="N29" s="71"/>
+      <c r="N29" s="69"/>
       <c r="O29" s="49"/>
       <c r="P29" s="49"/>
       <c r="Q29" s="49"/>
@@ -56746,7 +56654,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>47</v>
       </c>
-      <c r="N30" s="71"/>
+      <c r="N30" s="69"/>
       <c r="O30" s="49"/>
       <c r="P30" s="49"/>
       <c r="Q30" s="49"/>
@@ -56827,7 +56735,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>34</v>
       </c>
-      <c r="N31" s="71"/>
+      <c r="N31" s="69"/>
       <c r="O31" s="49"/>
       <c r="P31" s="49"/>
       <c r="Q31" s="49"/>
@@ -56908,7 +56816,7 @@
         <f>HLOOKUP(M$1,'05_選択特徴量_省略'!$D$1:$AQ$32,ROW(),)</f>
         <v>48</v>
       </c>
-      <c r="N32" s="71"/>
+      <c r="N32" s="69"/>
       <c r="O32" s="49"/>
       <c r="P32" s="49"/>
       <c r="Q32" s="49"/>
@@ -56963,16 +56871,16 @@
     </row>
     <row r="39" spans="3:43" ht="18">
       <c r="C39" s="45"/>
-      <c r="D39" s="69"/>
-      <c r="E39" s="69"/>
-      <c r="F39" s="69"/>
-      <c r="G39" s="69"/>
-      <c r="H39" s="69"/>
-      <c r="I39" s="69"/>
-      <c r="J39" s="69"/>
-      <c r="K39" s="69"/>
-      <c r="L39" s="69"/>
-      <c r="M39" s="69"/>
+      <c r="D39" s="67"/>
+      <c r="E39" s="67"/>
+      <c r="F39" s="67"/>
+      <c r="G39" s="67"/>
+      <c r="H39" s="67"/>
+      <c r="I39" s="67"/>
+      <c r="J39" s="67"/>
+      <c r="K39" s="67"/>
+      <c r="L39" s="67"/>
+      <c r="M39" s="67"/>
       <c r="W39" s="42"/>
       <c r="Y39" s="42"/>
       <c r="AI39" s="42"/>
@@ -57008,8 +56916,8 @@
     </row>
     <row r="44" spans="3:43" ht="18">
       <c r="C44" s="45"/>
-      <c r="F44" s="57"/>
-      <c r="G44" s="58"/>
+      <c r="F44" s="73"/>
+      <c r="G44" s="74"/>
       <c r="W44" s="42"/>
       <c r="Y44" s="42"/>
       <c r="AI44" s="42"/>
@@ -57135,18 +57043,18 @@
   </mergeCells>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="D39:M39">
-    <cfRule type="expression" dxfId="21" priority="3">
+    <cfRule type="expression" dxfId="15" priority="3">
       <formula>$L39&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="4">
+    <cfRule type="expression" dxfId="14" priority="4">
       <formula>$L39&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:M1">
-    <cfRule type="expression" dxfId="19" priority="1">
+    <cfRule type="expression" dxfId="13" priority="1">
       <formula>$L1&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="2">
+    <cfRule type="expression" dxfId="12" priority="2">
       <formula>$L1&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
